--- a/DataFrame_Model.xlsx
+++ b/DataFrame_Model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>Postcode</t>
   </si>
@@ -227,16 +227,7 @@
     <t>Gezinnen_Totaal</t>
   </si>
   <si>
-    <t>%Meerpersoons</t>
-  </si>
-  <si>
     <t>Most_Common_Householdsize</t>
-  </si>
-  <si>
-    <t>%Mannen_Mean</t>
-  </si>
-  <si>
-    <t>%Vrouwen_Mean</t>
   </si>
   <si>
     <t>Most_Common_Gender</t>
@@ -594,7 +585,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BX289"/>
+  <dimension ref="A1:BU289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,7 +593,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:76">
+    <row r="1" spans="1:73">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -822,17 +813,8 @@
       <c r="BU1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>75</v>
-      </c>
     </row>
-    <row r="2" spans="1:76">
+    <row r="2" spans="1:73">
       <c r="A2" t="n">
         <v>5211</v>
       </c>
@@ -1043,26 +1025,17 @@
       <c r="BR2" t="n">
         <v>7795</v>
       </c>
-      <c r="BS2" t="n">
-        <v>0.3579217447081463</v>
+      <c r="BS2" t="s">
+        <v>5</v>
       </c>
       <c r="BT2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.001488069511273116</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-0.001459186403309998</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX2" t="n">
         <v>11975</v>
       </c>
     </row>
-    <row r="3" spans="1:76">
+    <row r="3" spans="1:73">
       <c r="A3" t="n">
         <v>5211</v>
       </c>
@@ -1273,26 +1246,17 @@
       <c r="BR3" t="n">
         <v>7850</v>
       </c>
-      <c r="BS3" t="n">
-        <v>0.356687898089172</v>
+      <c r="BS3" t="s">
+        <v>5</v>
       </c>
       <c r="BT3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0.002354191407746287</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0.002308497060754866</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX3" t="n">
         <v>12050</v>
       </c>
     </row>
-    <row r="4" spans="1:76">
+    <row r="4" spans="1:73">
       <c r="A4" t="n">
         <v>5211</v>
       </c>
@@ -1503,26 +1467,17 @@
       <c r="BR4" t="n">
         <v>8020</v>
       </c>
-      <c r="BS4" t="n">
-        <v>0.3547381546134663</v>
+      <c r="BS4" t="s">
+        <v>5</v>
       </c>
       <c r="BT4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0.006182616614625491</v>
-      </c>
-      <c r="BV4" t="n">
-        <v>0.006062613360865776</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX4" t="n">
         <v>12235</v>
       </c>
     </row>
-    <row r="5" spans="1:76">
+    <row r="5" spans="1:73">
       <c r="A5" t="n">
         <v>5211</v>
       </c>
@@ -1733,26 +1688,17 @@
       <c r="BR5" t="n">
         <v>8045</v>
       </c>
-      <c r="BS5" t="n">
-        <v>0.3598508390304537</v>
+      <c r="BS5" t="s">
+        <v>5</v>
       </c>
       <c r="BT5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU5" t="n">
-        <v>-0.003771452756218263</v>
-      </c>
-      <c r="BV5" t="n">
-        <v>0.00369824967241783</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX5" t="n">
         <v>12365</v>
       </c>
     </row>
-    <row r="6" spans="1:76">
+    <row r="6" spans="1:73">
       <c r="A6" t="n">
         <v>5211</v>
       </c>
@@ -1963,26 +1909,17 @@
       <c r="BR6" t="n">
         <v>8090</v>
       </c>
-      <c r="BS6" t="n">
-        <v>0.3590852904820766</v>
+      <c r="BS6" t="s">
+        <v>5</v>
       </c>
       <c r="BT6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU6" t="n">
-        <v>-0.00542302075442036</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>0.005317761092322182</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX6" t="n">
         <v>12415</v>
       </c>
     </row>
-    <row r="7" spans="1:76">
+    <row r="7" spans="1:73">
       <c r="A7" t="n">
         <v>5211</v>
       </c>
@@ -2193,26 +2130,17 @@
       <c r="BR7" t="n">
         <v>8080</v>
       </c>
-      <c r="BS7" t="n">
-        <v>0.3650990099009901</v>
+      <c r="BS7" t="s">
+        <v>5</v>
       </c>
       <c r="BT7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU7" t="n">
-        <v>-0.003423291849872445</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>0.003356846494101395</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX7" t="n">
         <v>12480</v>
       </c>
     </row>
-    <row r="8" spans="1:76">
+    <row r="8" spans="1:73">
       <c r="A8" t="n">
         <v>5211</v>
       </c>
@@ -2423,26 +2351,17 @@
       <c r="BR8" t="n">
         <v>8215</v>
       </c>
-      <c r="BS8" t="n">
-        <v>0.36457699330493</v>
+      <c r="BS8" t="s">
+        <v>5</v>
       </c>
       <c r="BT8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.002856246942212093</v>
-      </c>
-      <c r="BV8" t="n">
-        <v>-0.002800807805682703</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX8" t="n">
         <v>12670</v>
       </c>
     </row>
-    <row r="9" spans="1:76">
+    <row r="9" spans="1:73">
       <c r="A9" t="n">
         <v>5211</v>
       </c>
@@ -2653,26 +2572,17 @@
       <c r="BR9" t="n">
         <v>8345</v>
       </c>
-      <c r="BS9" t="n">
-        <v>0.3648891551827442</v>
+      <c r="BS9" t="s">
+        <v>5</v>
       </c>
       <c r="BT9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU9" t="n">
-        <v>-0.002381110044910928</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>0.002334893212983746</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX9" t="n">
         <v>12765</v>
       </c>
     </row>
-    <row r="10" spans="1:76">
+    <row r="10" spans="1:73">
       <c r="A10" t="n">
         <v>5211</v>
       </c>
@@ -2883,26 +2793,17 @@
       <c r="BR10" t="n">
         <v>8315</v>
       </c>
-      <c r="BS10" t="n">
-        <v>0.3686109440769693</v>
+      <c r="BS10" t="s">
+        <v>5</v>
       </c>
       <c r="BT10" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.00500055826603818</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>-0.004903498509636561</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX10" t="n">
         <v>12880</v>
       </c>
     </row>
-    <row r="11" spans="1:76">
+    <row r="11" spans="1:73">
       <c r="A11" t="n">
         <v>5211</v>
       </c>
@@ -3113,26 +3014,17 @@
       <c r="BR11" t="n">
         <v>8350</v>
       </c>
-      <c r="BS11" t="n">
-        <v>0.3718562874251497</v>
+      <c r="BS11" t="s">
+        <v>5</v>
       </c>
       <c r="BT11" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU11" t="n">
-        <v>-0.005232339280608178</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>0.005130780704751703</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX11" t="n">
         <v>12990</v>
       </c>
     </row>
-    <row r="12" spans="1:76">
+    <row r="12" spans="1:73">
       <c r="A12" t="n">
         <v>5211</v>
       </c>
@@ -3343,26 +3235,17 @@
       <c r="BR12" t="n">
         <v>8485</v>
       </c>
-      <c r="BS12" t="n">
-        <v>0.3688862698880377</v>
+      <c r="BS12" t="s">
+        <v>5</v>
       </c>
       <c r="BT12" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU12" t="n">
-        <v>-0.002598381598777788</v>
-      </c>
-      <c r="BV12" t="n">
-        <v>0.00254794757289567</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX12" t="n">
         <v>13145</v>
       </c>
     </row>
-    <row r="13" spans="1:76">
+    <row r="13" spans="1:73">
       <c r="A13" t="n">
         <v>5211</v>
       </c>
@@ -3573,26 +3456,17 @@
       <c r="BR13" t="n">
         <v>8460</v>
       </c>
-      <c r="BS13" t="n">
-        <v>0.3723404255319149</v>
+      <c r="BS13" t="s">
+        <v>5</v>
       </c>
       <c r="BT13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BU13" t="n">
-        <v>-0.01066555747082454</v>
-      </c>
-      <c r="BV13" t="n">
-        <v>0.01045854130284252</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX13" t="n">
         <v>13140</v>
       </c>
     </row>
-    <row r="14" spans="1:76">
+    <row r="14" spans="1:73">
       <c r="A14" t="n">
         <v>5212</v>
       </c>
@@ -3803,26 +3677,17 @@
       <c r="BR14" t="n">
         <v>3625</v>
       </c>
-      <c r="BS14" t="n">
-        <v>0.4882758620689655</v>
+      <c r="BS14" t="s">
+        <v>5</v>
       </c>
       <c r="BT14" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.02329903912985676</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>-0.02284680981024367</v>
-      </c>
-      <c r="BW14" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX14" t="n">
         <v>6845</v>
       </c>
     </row>
-    <row r="15" spans="1:76">
+    <row r="15" spans="1:73">
       <c r="A15" t="n">
         <v>5212</v>
       </c>
@@ -4033,26 +3898,17 @@
       <c r="BR15" t="n">
         <v>3635</v>
       </c>
-      <c r="BS15" t="n">
-        <v>0.4910591471801925</v>
+      <c r="BS15" t="s">
+        <v>5</v>
       </c>
       <c r="BT15" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.01933302369004963</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>-0.01895777387392261</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX15" t="n">
         <v>6910</v>
       </c>
     </row>
-    <row r="16" spans="1:76">
+    <row r="16" spans="1:73">
       <c r="A16" t="n">
         <v>5212</v>
       </c>
@@ -4263,26 +4119,17 @@
       <c r="BR16" t="n">
         <v>3595</v>
       </c>
-      <c r="BS16" t="n">
-        <v>0.4993045897079277</v>
+      <c r="BS16" t="s">
+        <v>5</v>
       </c>
       <c r="BT16" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU16" t="n">
-        <v>0.02852694380521348</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>-0.02797324198447448</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX16" t="n">
         <v>6965</v>
       </c>
     </row>
-    <row r="17" spans="1:76">
+    <row r="17" spans="1:73">
       <c r="A17" t="n">
         <v>5212</v>
       </c>
@@ -4493,26 +4340,17 @@
       <c r="BR17" t="n">
         <v>3650</v>
       </c>
-      <c r="BS17" t="n">
-        <v>0.4945205479452055</v>
+      <c r="BS17" t="s">
+        <v>5</v>
       </c>
       <c r="BT17" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU17" t="n">
-        <v>0.03998339055601008</v>
-      </c>
-      <c r="BV17" t="n">
-        <v>-0.03920732157710538</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX17" t="n">
         <v>6985</v>
       </c>
     </row>
-    <row r="18" spans="1:76">
+    <row r="18" spans="1:73">
       <c r="A18" t="n">
         <v>5212</v>
       </c>
@@ -4723,26 +4561,17 @@
       <c r="BR18" t="n">
         <v>3795</v>
       </c>
-      <c r="BS18" t="n">
-        <v>0.4953886693017127</v>
+      <c r="BS18" t="s">
+        <v>5</v>
       </c>
       <c r="BT18" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.02571291747987814</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>-0.0252138353026099</v>
-      </c>
-      <c r="BW18" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX18" t="n">
         <v>7090</v>
       </c>
     </row>
-    <row r="19" spans="1:76">
+    <row r="19" spans="1:73">
       <c r="A19" t="n">
         <v>5212</v>
       </c>
@@ -4953,26 +4782,17 @@
       <c r="BR19" t="n">
         <v>3845</v>
       </c>
-      <c r="BS19" t="n">
-        <v>0.5019505851755526</v>
+      <c r="BS19" t="s">
+        <v>73</v>
       </c>
       <c r="BT19" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU19" t="n">
-        <v>0.02988471540795712</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>-0.02930465953353067</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX19" t="n">
         <v>7235</v>
       </c>
     </row>
-    <row r="20" spans="1:76">
+    <row r="20" spans="1:73">
       <c r="A20" t="n">
         <v>5212</v>
       </c>
@@ -5183,26 +5003,17 @@
       <c r="BR20" t="n">
         <v>3885</v>
       </c>
-      <c r="BS20" t="n">
-        <v>0.4967824967824966</v>
+      <c r="BS20" t="s">
+        <v>5</v>
       </c>
       <c r="BT20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU20" t="n">
-        <v>0.03033242257641366</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>-0.02974367680250034</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX20" t="n">
         <v>7280</v>
       </c>
     </row>
-    <row r="21" spans="1:76">
+    <row r="21" spans="1:73">
       <c r="A21" t="n">
         <v>5212</v>
       </c>
@@ -5413,26 +5224,17 @@
       <c r="BR21" t="n">
         <v>3895</v>
       </c>
-      <c r="BS21" t="n">
-        <v>0.4993581514762516</v>
+      <c r="BS21" t="s">
+        <v>5</v>
       </c>
       <c r="BT21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU21" t="n">
-        <v>0.03419128192989795</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>-0.03352763652900093</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX21" t="n">
         <v>7330</v>
       </c>
     </row>
-    <row r="22" spans="1:76">
+    <row r="22" spans="1:73">
       <c r="A22" t="n">
         <v>5212</v>
       </c>
@@ -5643,26 +5445,17 @@
       <c r="BR22" t="n">
         <v>3900</v>
       </c>
-      <c r="BS22" t="n">
-        <v>0.491025641025641</v>
+      <c r="BS22" t="s">
+        <v>5</v>
       </c>
       <c r="BT22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU22" t="n">
-        <v>0.02683913886631173</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>-0.02631819697506632</v>
-      </c>
-      <c r="BW22" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX22" t="n">
         <v>7285</v>
       </c>
     </row>
-    <row r="23" spans="1:76">
+    <row r="23" spans="1:73">
       <c r="A23" t="n">
         <v>5212</v>
       </c>
@@ -5873,26 +5666,17 @@
       <c r="BR23" t="n">
         <v>3845</v>
       </c>
-      <c r="BS23" t="n">
-        <v>0.5006501950585176</v>
+      <c r="BS23" t="s">
+        <v>73</v>
       </c>
       <c r="BT23" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU23" t="n">
-        <v>0.03376661717185447</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>-0.03311121442223253</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX23" t="n">
         <v>7170</v>
       </c>
     </row>
-    <row r="24" spans="1:76">
+    <row r="24" spans="1:73">
       <c r="A24" t="n">
         <v>5212</v>
       </c>
@@ -6103,26 +5887,17 @@
       <c r="BR24" t="n">
         <v>3825</v>
       </c>
-      <c r="BS24" t="n">
-        <v>0.4967320261437908</v>
+      <c r="BS24" t="s">
+        <v>5</v>
       </c>
       <c r="BT24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU24" t="n">
-        <v>0.03853248435514289</v>
-      </c>
-      <c r="BV24" t="n">
-        <v>-0.03778457715236927</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX24" t="n">
         <v>7090</v>
       </c>
     </row>
-    <row r="25" spans="1:76">
+    <row r="25" spans="1:73">
       <c r="A25" t="n">
         <v>5212</v>
       </c>
@@ -6333,26 +6108,17 @@
       <c r="BR25" t="n">
         <v>3785</v>
       </c>
-      <c r="BS25" t="n">
-        <v>0.5085865257595773</v>
+      <c r="BS25" t="s">
+        <v>73</v>
       </c>
       <c r="BT25" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU25" t="n">
-        <v>0.03908517451048787</v>
-      </c>
-      <c r="BV25" t="n">
-        <v>-0.03832653971111633</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX25" t="n">
         <v>7010</v>
       </c>
     </row>
-    <row r="26" spans="1:76">
+    <row r="26" spans="1:73">
       <c r="A26" t="n">
         <v>5213</v>
       </c>
@@ -6563,26 +6329,17 @@
       <c r="BR26" t="n">
         <v>3760</v>
       </c>
-      <c r="BS26" t="n">
-        <v>0.5585106382978724</v>
+      <c r="BS26" t="s">
+        <v>73</v>
       </c>
       <c r="BT26" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU26" t="n">
-        <v>0.00812496504074367</v>
-      </c>
-      <c r="BV26" t="n">
-        <v>-0.007967261223355449</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX26" t="n">
         <v>7565</v>
       </c>
     </row>
-    <row r="27" spans="1:76">
+    <row r="27" spans="1:73">
       <c r="A27" t="n">
         <v>5213</v>
       </c>
@@ -6793,26 +6550,17 @@
       <c r="BR27" t="n">
         <v>3845</v>
       </c>
-      <c r="BS27" t="n">
-        <v>0.5604681404421326</v>
+      <c r="BS27" t="s">
+        <v>73</v>
       </c>
       <c r="BT27" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU27" t="n">
-        <v>0.00913290729985583</v>
-      </c>
-      <c r="BV27" t="n">
-        <v>-0.008955639540817018</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX27" t="n">
         <v>7695</v>
       </c>
     </row>
-    <row r="28" spans="1:76">
+    <row r="28" spans="1:73">
       <c r="A28" t="n">
         <v>5213</v>
       </c>
@@ -7023,26 +6771,17 @@
       <c r="BR28" t="n">
         <v>3985</v>
       </c>
-      <c r="BS28" t="n">
-        <v>0.5395232120451694</v>
+      <c r="BS28" t="s">
+        <v>73</v>
       </c>
       <c r="BT28" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU28" t="n">
-        <v>-0.0002174666362944055</v>
-      </c>
-      <c r="BV28" t="n">
-        <v>0.0002132456558316953</v>
-      </c>
-      <c r="BW28" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX28" t="n">
         <v>7825</v>
       </c>
     </row>
-    <row r="29" spans="1:76">
+    <row r="29" spans="1:73">
       <c r="A29" t="n">
         <v>5213</v>
       </c>
@@ -7253,26 +6992,17 @@
       <c r="BR29" t="n">
         <v>3940</v>
       </c>
-      <c r="BS29" t="n">
-        <v>0.5444162436548224</v>
+      <c r="BS29" t="s">
+        <v>73</v>
       </c>
       <c r="BT29" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU29" t="n">
-        <v>0.001785622493755024</v>
-      </c>
-      <c r="BV29" t="n">
-        <v>-0.001750963946639095</v>
-      </c>
-      <c r="BW29" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX29" t="n">
         <v>7780</v>
       </c>
     </row>
-    <row r="30" spans="1:76">
+    <row r="30" spans="1:73">
       <c r="A30" t="n">
         <v>5213</v>
       </c>
@@ -7483,26 +7213,17 @@
       <c r="BR30" t="n">
         <v>3965</v>
       </c>
-      <c r="BS30" t="n">
-        <v>0.5384615384615385</v>
+      <c r="BS30" t="s">
+        <v>73</v>
       </c>
       <c r="BT30" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU30" t="n">
-        <v>0.006934626001481314</v>
-      </c>
-      <c r="BV30" t="n">
-        <v>-0.006800026407869364</v>
-      </c>
-      <c r="BW30" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX30" t="n">
         <v>7800</v>
       </c>
     </row>
-    <row r="31" spans="1:76">
+    <row r="31" spans="1:73">
       <c r="A31" t="n">
         <v>5213</v>
       </c>
@@ -7713,26 +7434,17 @@
       <c r="BR31" t="n">
         <v>3985</v>
       </c>
-      <c r="BS31" t="n">
-        <v>0.5432873274780428</v>
+      <c r="BS31" t="s">
+        <v>73</v>
       </c>
       <c r="BT31" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU31" t="n">
-        <v>0.006848750407050241</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>-0.00671581764018736</v>
-      </c>
-      <c r="BW31" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX31" t="n">
         <v>7840</v>
       </c>
     </row>
-    <row r="32" spans="1:76">
+    <row r="32" spans="1:73">
       <c r="A32" t="n">
         <v>5213</v>
       </c>
@@ -7943,26 +7655,17 @@
       <c r="BR32" t="n">
         <v>3995</v>
       </c>
-      <c r="BS32" t="n">
-        <v>0.5381727158948686</v>
+      <c r="BS32" t="s">
+        <v>73</v>
       </c>
       <c r="BT32" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU32" t="n">
-        <v>0.003000799920962471</v>
-      </c>
-      <c r="BV32" t="n">
-        <v>-0.002942555042322104</v>
-      </c>
-      <c r="BW32" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX32" t="n">
         <v>7830</v>
       </c>
     </row>
-    <row r="33" spans="1:76">
+    <row r="33" spans="1:73">
       <c r="A33" t="n">
         <v>5213</v>
       </c>
@@ -8173,26 +7876,17 @@
       <c r="BR33" t="n">
         <v>4090</v>
       </c>
-      <c r="BS33" t="n">
-        <v>0.5207823960880196</v>
+      <c r="BS33" t="s">
+        <v>73</v>
       </c>
       <c r="BT33" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU33" t="n">
-        <v>0.003050406807223571</v>
-      </c>
-      <c r="BV33" t="n">
-        <v>-0.002991199069630301</v>
-      </c>
-      <c r="BW33" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX33" t="n">
         <v>7800</v>
       </c>
     </row>
-    <row r="34" spans="1:76">
+    <row r="34" spans="1:73">
       <c r="A34" t="n">
         <v>5213</v>
       </c>
@@ -8403,26 +8097,17 @@
       <c r="BR34" t="n">
         <v>4135</v>
       </c>
-      <c r="BS34" t="n">
-        <v>0.5187424425634826</v>
+      <c r="BS34" t="s">
+        <v>73</v>
       </c>
       <c r="BT34" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU34" t="n">
-        <v>-0.002825783062298193</v>
-      </c>
-      <c r="BV34" t="n">
-        <v>0.002770935223101456</v>
-      </c>
-      <c r="BW34" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX34" t="n">
         <v>7855</v>
       </c>
     </row>
-    <row r="35" spans="1:76">
+    <row r="35" spans="1:73">
       <c r="A35" t="n">
         <v>5213</v>
       </c>
@@ -8633,26 +8318,17 @@
       <c r="BR35" t="n">
         <v>4200</v>
       </c>
-      <c r="BS35" t="n">
-        <v>0.5202380952380952</v>
+      <c r="BS35" t="s">
+        <v>73</v>
       </c>
       <c r="BT35" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU35" t="n">
-        <v>-0.007999876561119112</v>
-      </c>
-      <c r="BV35" t="n">
-        <v>0.007844600684115965</v>
-      </c>
-      <c r="BW35" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX35" t="n">
         <v>7985</v>
       </c>
     </row>
-    <row r="36" spans="1:76">
+    <row r="36" spans="1:73">
       <c r="A36" t="n">
         <v>5213</v>
       </c>
@@ -8863,26 +8539,17 @@
       <c r="BR36" t="n">
         <v>4180</v>
       </c>
-      <c r="BS36" t="n">
-        <v>0.5239234449760765</v>
+      <c r="BS36" t="s">
+        <v>73</v>
       </c>
       <c r="BT36" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU36" t="n">
-        <v>-0.01114686301997181</v>
-      </c>
-      <c r="BV36" t="n">
-        <v>0.01093050481518743</v>
-      </c>
-      <c r="BW36" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX36" t="n">
         <v>8080</v>
       </c>
     </row>
-    <row r="37" spans="1:76">
+    <row r="37" spans="1:73">
       <c r="A37" t="n">
         <v>5213</v>
       </c>
@@ -9093,26 +8760,17 @@
       <c r="BR37" t="n">
         <v>4170</v>
       </c>
-      <c r="BS37" t="n">
-        <v>0.5215827338129497</v>
+      <c r="BS37" t="s">
+        <v>73</v>
       </c>
       <c r="BT37" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU37" t="n">
-        <v>-0.01364660804597917</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>0.01338173032989587</v>
-      </c>
-      <c r="BW37" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX37" t="n">
         <v>8080</v>
       </c>
     </row>
-    <row r="38" spans="1:76">
+    <row r="38" spans="1:73">
       <c r="A38" t="n">
         <v>5215</v>
       </c>
@@ -9323,26 +8981,17 @@
       <c r="BR38" t="n">
         <v>2690</v>
       </c>
-      <c r="BS38" t="n">
-        <v>0.5167286245353161</v>
+      <c r="BS38" t="s">
+        <v>73</v>
       </c>
       <c r="BT38" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU38" t="n">
-        <v>0.06105823596753479</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>-0.05987310878892149</v>
-      </c>
-      <c r="BW38" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX38" t="n">
         <v>5195</v>
       </c>
     </row>
-    <row r="39" spans="1:76">
+    <row r="39" spans="1:73">
       <c r="A39" t="n">
         <v>5215</v>
       </c>
@@ -9553,26 +9202,17 @@
       <c r="BR39" t="n">
         <v>2730</v>
       </c>
-      <c r="BS39" t="n">
-        <v>0.5073260073260073</v>
+      <c r="BS39" t="s">
+        <v>73</v>
       </c>
       <c r="BT39" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU39" t="n">
-        <v>0.05522629954497293</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>-0.05415436899329795</v>
-      </c>
-      <c r="BW39" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX39" t="n">
         <v>5195</v>
       </c>
     </row>
-    <row r="40" spans="1:76">
+    <row r="40" spans="1:73">
       <c r="A40" t="n">
         <v>5215</v>
       </c>
@@ -9783,26 +9423,17 @@
       <c r="BR40" t="n">
         <v>2585</v>
       </c>
-      <c r="BS40" t="n">
-        <v>0.5164410058027079</v>
+      <c r="BS40" t="s">
+        <v>73</v>
       </c>
       <c r="BT40" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU40" t="n">
-        <v>0.04249847899034132</v>
-      </c>
-      <c r="BV40" t="n">
-        <v>-0.04167359268789461</v>
-      </c>
-      <c r="BW40" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX40" t="n">
         <v>4915</v>
       </c>
     </row>
-    <row r="41" spans="1:76">
+    <row r="41" spans="1:73">
       <c r="A41" t="n">
         <v>5215</v>
       </c>
@@ -10013,26 +9644,17 @@
       <c r="BR41" t="n">
         <v>2670</v>
       </c>
-      <c r="BS41" t="n">
-        <v>0.5037453183520599</v>
+      <c r="BS41" t="s">
+        <v>73</v>
       </c>
       <c r="BT41" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU41" t="n">
-        <v>0.04548120937128031</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>-0.04459842891606436</v>
-      </c>
-      <c r="BW41" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX41" t="n">
         <v>5015</v>
       </c>
     </row>
-    <row r="42" spans="1:76">
+    <row r="42" spans="1:73">
       <c r="A42" t="n">
         <v>5215</v>
       </c>
@@ -10243,26 +9865,17 @@
       <c r="BR42" t="n">
         <v>2645</v>
       </c>
-      <c r="BS42" t="n">
-        <v>0.5198487712665406</v>
+      <c r="BS42" t="s">
+        <v>73</v>
       </c>
       <c r="BT42" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU42" t="n">
-        <v>0.04161844789232838</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>-0.0408106428035091</v>
-      </c>
-      <c r="BW42" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX42" t="n">
         <v>5195</v>
       </c>
     </row>
-    <row r="43" spans="1:76">
+    <row r="43" spans="1:73">
       <c r="A43" t="n">
         <v>5215</v>
       </c>
@@ -10473,26 +10086,17 @@
       <c r="BR43" t="n">
         <v>2630</v>
       </c>
-      <c r="BS43" t="n">
-        <v>0.5228136882129278</v>
+      <c r="BS43" t="s">
+        <v>73</v>
       </c>
       <c r="BT43" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU43" t="n">
-        <v>0.04222038096028524</v>
-      </c>
-      <c r="BV43" t="n">
-        <v>-0.04140089248056489</v>
-      </c>
-      <c r="BW43" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX43" t="n">
         <v>5135</v>
       </c>
     </row>
-    <row r="44" spans="1:76">
+    <row r="44" spans="1:73">
       <c r="A44" t="n">
         <v>5215</v>
       </c>
@@ -10703,26 +10307,17 @@
       <c r="BR44" t="n">
         <v>2645</v>
       </c>
-      <c r="BS44" t="n">
-        <v>0.5274102079395084</v>
+      <c r="BS44" t="s">
+        <v>73</v>
       </c>
       <c r="BT44" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU44" t="n">
-        <v>0.04437770380050798</v>
-      </c>
-      <c r="BV44" t="n">
-        <v>-0.04351634215019096</v>
-      </c>
-      <c r="BW44" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX44" t="n">
         <v>5210</v>
       </c>
     </row>
-    <row r="45" spans="1:76">
+    <row r="45" spans="1:73">
       <c r="A45" t="n">
         <v>5215</v>
       </c>
@@ -10933,26 +10528,17 @@
       <c r="BR45" t="n">
         <v>2685</v>
       </c>
-      <c r="BS45" t="n">
-        <v>0.5232774674115456</v>
+      <c r="BS45" t="s">
+        <v>73</v>
       </c>
       <c r="BT45" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU45" t="n">
-        <v>0.04973502226582405</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>-0.04876967622065664</v>
-      </c>
-      <c r="BW45" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX45" t="n">
         <v>5250</v>
       </c>
     </row>
-    <row r="46" spans="1:76">
+    <row r="46" spans="1:73">
       <c r="A46" t="n">
         <v>5215</v>
       </c>
@@ -11163,26 +10749,17 @@
       <c r="BR46" t="n">
         <v>2660</v>
       </c>
-      <c r="BS46" t="n">
-        <v>0.513157894736842</v>
+      <c r="BS46" t="s">
+        <v>73</v>
       </c>
       <c r="BT46" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU46" t="n">
-        <v>0.05122069479748792</v>
-      </c>
-      <c r="BV46" t="n">
-        <v>-0.05022651216921425</v>
-      </c>
-      <c r="BW46" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX46" t="n">
         <v>5205</v>
       </c>
     </row>
-    <row r="47" spans="1:76">
+    <row r="47" spans="1:73">
       <c r="A47" t="n">
         <v>5215</v>
       </c>
@@ -11393,26 +10970,17 @@
       <c r="BR47" t="n">
         <v>2635</v>
       </c>
-      <c r="BS47" t="n">
-        <v>0.5199240986717267</v>
+      <c r="BS47" t="s">
+        <v>73</v>
       </c>
       <c r="BT47" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU47" t="n">
-        <v>0.0469709953662395</v>
-      </c>
-      <c r="BV47" t="n">
-        <v>-0.04605929848648294</v>
-      </c>
-      <c r="BW47" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX47" t="n">
         <v>5150</v>
       </c>
     </row>
-    <row r="48" spans="1:76">
+    <row r="48" spans="1:73">
       <c r="A48" t="n">
         <v>5215</v>
       </c>
@@ -11623,26 +11191,17 @@
       <c r="BR48" t="n">
         <v>2670</v>
       </c>
-      <c r="BS48" t="n">
-        <v>0.5149812734082397</v>
+      <c r="BS48" t="s">
+        <v>73</v>
       </c>
       <c r="BT48" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU48" t="n">
-        <v>0.04050093992140247</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>-0.03971482542104643</v>
-      </c>
-      <c r="BW48" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX48" t="n">
         <v>5210</v>
       </c>
     </row>
-    <row r="49" spans="1:76">
+    <row r="49" spans="1:73">
       <c r="A49" t="n">
         <v>5215</v>
       </c>
@@ -11853,26 +11412,17 @@
       <c r="BR49" t="n">
         <v>2650</v>
       </c>
-      <c r="BS49" t="n">
-        <v>0.5226415094339623</v>
+      <c r="BS49" t="s">
+        <v>73</v>
       </c>
       <c r="BT49" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU49" t="n">
-        <v>0.04161844789232838</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>-0.0408106428035091</v>
-      </c>
-      <c r="BW49" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX49" t="n">
         <v>5195</v>
       </c>
     </row>
-    <row r="50" spans="1:76">
+    <row r="50" spans="1:73">
       <c r="A50" t="n">
         <v>5216</v>
       </c>
@@ -12083,26 +11633,17 @@
       <c r="BR50" t="n">
         <v>3560</v>
       </c>
-      <c r="BS50" t="n">
-        <v>0.4957865168539326</v>
+      <c r="BS50" t="s">
+        <v>5</v>
       </c>
       <c r="BT50" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BU50" t="n">
-        <v>0.06530810453078473</v>
-      </c>
-      <c r="BV50" t="n">
-        <v>-0.06404048832083875</v>
-      </c>
-      <c r="BW50" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX50" t="n">
         <v>6580</v>
       </c>
     </row>
-    <row r="51" spans="1:76">
+    <row r="51" spans="1:73">
       <c r="A51" t="n">
         <v>5216</v>
       </c>
@@ -12313,26 +11854,17 @@
       <c r="BR51" t="n">
         <v>3520</v>
       </c>
-      <c r="BS51" t="n">
-        <v>0.5028409090909092</v>
+      <c r="BS51" t="s">
+        <v>73</v>
       </c>
       <c r="BT51" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU51" t="n">
-        <v>0.06482460223077069</v>
-      </c>
-      <c r="BV51" t="n">
-        <v>-0.06356637069608762</v>
-      </c>
-      <c r="BW51" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX51" t="n">
         <v>6555</v>
       </c>
     </row>
-    <row r="52" spans="1:76">
+    <row r="52" spans="1:73">
       <c r="A52" t="n">
         <v>5216</v>
       </c>
@@ -12543,26 +12075,17 @@
       <c r="BR52" t="n">
         <v>3600</v>
       </c>
-      <c r="BS52" t="n">
-        <v>0.5097222222222223</v>
+      <c r="BS52" t="s">
+        <v>73</v>
       </c>
       <c r="BT52" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU52" t="n">
-        <v>0.07149769231001124</v>
-      </c>
-      <c r="BV52" t="n">
-        <v>-0.07010993753750561</v>
-      </c>
-      <c r="BW52" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX52" t="n">
         <v>6700</v>
       </c>
     </row>
-    <row r="53" spans="1:76">
+    <row r="53" spans="1:73">
       <c r="A53" t="n">
         <v>5216</v>
       </c>
@@ -12773,26 +12296,17 @@
       <c r="BR53" t="n">
         <v>3605</v>
       </c>
-      <c r="BS53" t="n">
-        <v>0.5145631067961165</v>
+      <c r="BS53" t="s">
+        <v>73</v>
       </c>
       <c r="BT53" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU53" t="n">
-        <v>0.06526851873489148</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>-0.06400167087669795</v>
-      </c>
-      <c r="BW53" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX53" t="n">
         <v>6785</v>
       </c>
     </row>
-    <row r="54" spans="1:76">
+    <row r="54" spans="1:73">
       <c r="A54" t="n">
         <v>5216</v>
       </c>
@@ -13003,26 +12517,17 @@
       <c r="BR54" t="n">
         <v>3685</v>
       </c>
-      <c r="BS54" t="n">
-        <v>0.5115332428765264</v>
+      <c r="BS54" t="s">
+        <v>73</v>
       </c>
       <c r="BT54" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU54" t="n">
-        <v>0.05899293482514723</v>
-      </c>
-      <c r="BV54" t="n">
-        <v>-0.0578478946958414</v>
-      </c>
-      <c r="BW54" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX54" t="n">
         <v>6890</v>
       </c>
     </row>
-    <row r="55" spans="1:76">
+    <row r="55" spans="1:73">
       <c r="A55" t="n">
         <v>5216</v>
       </c>
@@ -13233,26 +12738,17 @@
       <c r="BR55" t="n">
         <v>3695</v>
       </c>
-      <c r="BS55" t="n">
-        <v>0.5142083897158323</v>
+      <c r="BS55" t="s">
+        <v>73</v>
       </c>
       <c r="BT55" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU55" t="n">
-        <v>0.0545022378731862</v>
-      </c>
-      <c r="BV55" t="n">
-        <v>-0.05344436120224683</v>
-      </c>
-      <c r="BW55" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX55" t="n">
         <v>6900</v>
       </c>
     </row>
-    <row r="56" spans="1:76">
+    <row r="56" spans="1:73">
       <c r="A56" t="n">
         <v>5216</v>
       </c>
@@ -13463,26 +12959,17 @@
       <c r="BR56" t="n">
         <v>3680</v>
       </c>
-      <c r="BS56" t="n">
-        <v>0.5190217391304348</v>
+      <c r="BS56" t="s">
+        <v>73</v>
       </c>
       <c r="BT56" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU56" t="n">
-        <v>0.04608721990990472</v>
-      </c>
-      <c r="BV56" t="n">
-        <v>-0.04519267692096207</v>
-      </c>
-      <c r="BW56" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX56" t="n">
         <v>6945</v>
       </c>
     </row>
-    <row r="57" spans="1:76">
+    <row r="57" spans="1:73">
       <c r="A57" t="n">
         <v>5216</v>
       </c>
@@ -13693,26 +13180,17 @@
       <c r="BR57" t="n">
         <v>3800</v>
       </c>
-      <c r="BS57" t="n">
-        <v>0.5078947368421053</v>
+      <c r="BS57" t="s">
+        <v>73</v>
       </c>
       <c r="BT57" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU57" t="n">
-        <v>0.04883460752251478</v>
-      </c>
-      <c r="BV57" t="n">
-        <v>-0.04788673833312962</v>
-      </c>
-      <c r="BW57" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX57" t="n">
         <v>7050</v>
       </c>
     </row>
-    <row r="58" spans="1:76">
+    <row r="58" spans="1:73">
       <c r="A58" t="n">
         <v>5216</v>
       </c>
@@ -13923,26 +13401,17 @@
       <c r="BR58" t="n">
         <v>3850</v>
       </c>
-      <c r="BS58" t="n">
-        <v>0.512987012987013</v>
+      <c r="BS58" t="s">
+        <v>73</v>
       </c>
       <c r="BT58" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU58" t="n">
-        <v>0.04377585654095451</v>
-      </c>
-      <c r="BV58" t="n">
-        <v>-0.04292617661601605</v>
-      </c>
-      <c r="BW58" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX58" t="n">
         <v>7150</v>
       </c>
     </row>
-    <row r="59" spans="1:76">
+    <row r="59" spans="1:73">
       <c r="A59" t="n">
         <v>5216</v>
       </c>
@@ -14153,26 +13622,17 @@
       <c r="BR59" t="n">
         <v>3945</v>
       </c>
-      <c r="BS59" t="n">
-        <v>0.5069708491761723</v>
+      <c r="BS59" t="s">
+        <v>73</v>
       </c>
       <c r="BT59" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU59" t="n">
-        <v>0.04077138083805487</v>
-      </c>
-      <c r="BV59" t="n">
-        <v>-0.03998001713789057</v>
-      </c>
-      <c r="BW59" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX59" t="n">
         <v>7275</v>
       </c>
     </row>
-    <row r="60" spans="1:76">
+    <row r="60" spans="1:73">
       <c r="A60" t="n">
         <v>5216</v>
       </c>
@@ -14383,26 +13843,17 @@
       <c r="BR60" t="n">
         <v>3810</v>
       </c>
-      <c r="BS60" t="n">
-        <v>0.5170603674540682</v>
+      <c r="BS60" t="s">
+        <v>73</v>
       </c>
       <c r="BT60" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU60" t="n">
-        <v>0.048077252038081</v>
-      </c>
-      <c r="BV60" t="n">
-        <v>-0.04714408295514727</v>
-      </c>
-      <c r="BW60" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX60" t="n">
         <v>7055</v>
       </c>
     </row>
-    <row r="61" spans="1:76">
+    <row r="61" spans="1:73">
       <c r="A61" t="n">
         <v>5216</v>
       </c>
@@ -14613,26 +14064,17 @@
       <c r="BR61" t="n">
         <v>3815</v>
       </c>
-      <c r="BS61" t="n">
-        <v>0.5163826998689383</v>
+      <c r="BS61" t="s">
+        <v>73</v>
       </c>
       <c r="BT61" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU61" t="n">
-        <v>0.04565446595251244</v>
-      </c>
-      <c r="BV61" t="n">
-        <v>-0.04476832262445796</v>
-      </c>
-      <c r="BW61" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX61" t="n">
         <v>7090</v>
       </c>
     </row>
-    <row r="62" spans="1:76">
+    <row r="62" spans="1:73">
       <c r="A62" t="n">
         <v>5221</v>
       </c>
@@ -14843,26 +14285,17 @@
       <c r="BR62" t="n">
         <v>2050</v>
       </c>
-      <c r="BS62" t="n">
-        <v>0.8390243902439025</v>
+      <c r="BS62" t="s">
+        <v>73</v>
       </c>
       <c r="BT62" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU62" t="n">
-        <v>-0.02434989913676411</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>0.02387727285128105</v>
-      </c>
-      <c r="BW62" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX62" t="n">
         <v>5590</v>
       </c>
     </row>
-    <row r="63" spans="1:76">
+    <row r="63" spans="1:73">
       <c r="A63" t="n">
         <v>5221</v>
       </c>
@@ -15073,26 +14506,17 @@
       <c r="BR63" t="n">
         <v>2080</v>
       </c>
-      <c r="BS63" t="n">
-        <v>0.8413461538461537</v>
+      <c r="BS63" t="s">
+        <v>73</v>
       </c>
       <c r="BT63" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU63" t="n">
-        <v>-0.0232908497975115</v>
-      </c>
-      <c r="BV63" t="n">
-        <v>0.0228387794310716</v>
-      </c>
-      <c r="BW63" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX63" t="n">
         <v>5655</v>
       </c>
     </row>
-    <row r="64" spans="1:76">
+    <row r="64" spans="1:73">
       <c r="A64" t="n">
         <v>5221</v>
       </c>
@@ -15303,26 +14727,17 @@
       <c r="BR64" t="n">
         <v>2160</v>
       </c>
-      <c r="BS64" t="n">
-        <v>0.8240740740740741</v>
+      <c r="BS64" t="s">
+        <v>73</v>
       </c>
       <c r="BT64" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU64" t="n">
-        <v>-0.01689800950528353</v>
-      </c>
-      <c r="BV64" t="n">
-        <v>0.0165700227888016</v>
-      </c>
-      <c r="BW64" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX64" t="n">
         <v>5770</v>
       </c>
     </row>
-    <row r="65" spans="1:76">
+    <row r="65" spans="1:73">
       <c r="A65" t="n">
         <v>5221</v>
       </c>
@@ -15533,26 +14948,17 @@
       <c r="BR65" t="n">
         <v>2170</v>
       </c>
-      <c r="BS65" t="n">
-        <v>0.8202764976958525</v>
+      <c r="BS65" t="s">
+        <v>73</v>
       </c>
       <c r="BT65" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU65" t="n">
-        <v>-0.02036224429460542</v>
-      </c>
-      <c r="BV65" t="n">
-        <v>0.01996701752873653</v>
-      </c>
-      <c r="BW65" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX65" t="n">
         <v>5790</v>
       </c>
     </row>
-    <row r="66" spans="1:76">
+    <row r="66" spans="1:73">
       <c r="A66" t="n">
         <v>5221</v>
       </c>
@@ -15763,26 +15169,17 @@
       <c r="BR66" t="n">
         <v>2190</v>
       </c>
-      <c r="BS66" t="n">
-        <v>0.819634703196347</v>
+      <c r="BS66" t="s">
+        <v>73</v>
       </c>
       <c r="BT66" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU66" t="n">
-        <v>-0.02204351788419978</v>
-      </c>
-      <c r="BV66" t="n">
-        <v>0.02161565796091758</v>
-      </c>
-      <c r="BW66" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX66" t="n">
         <v>5820</v>
       </c>
     </row>
-    <row r="67" spans="1:76">
+    <row r="67" spans="1:73">
       <c r="A67" t="n">
         <v>5221</v>
       </c>
@@ -15993,26 +15390,17 @@
       <c r="BR67" t="n">
         <v>2205</v>
       </c>
-      <c r="BS67" t="n">
-        <v>0.8117913832199546</v>
+      <c r="BS67" t="s">
+        <v>73</v>
       </c>
       <c r="BT67" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU67" t="n">
-        <v>-0.02032621932459633</v>
-      </c>
-      <c r="BV67" t="n">
-        <v>0.01993169179561816</v>
-      </c>
-      <c r="BW67" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX67" t="n">
         <v>5810</v>
       </c>
     </row>
-    <row r="68" spans="1:76">
+    <row r="68" spans="1:73">
       <c r="A68" t="n">
         <v>5221</v>
       </c>
@@ -16223,26 +15611,17 @@
       <c r="BR68" t="n">
         <v>2215</v>
       </c>
-      <c r="BS68" t="n">
-        <v>0.8081264108352145</v>
+      <c r="BS68" t="s">
+        <v>73</v>
       </c>
       <c r="BT68" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU68" t="n">
-        <v>-0.02292231712571668</v>
-      </c>
-      <c r="BV68" t="n">
-        <v>0.02247739989887587</v>
-      </c>
-      <c r="BW68" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX68" t="n">
         <v>5815</v>
       </c>
     </row>
-    <row r="69" spans="1:76">
+    <row r="69" spans="1:73">
       <c r="A69" t="n">
         <v>5221</v>
       </c>
@@ -16453,26 +15832,17 @@
       <c r="BR69" t="n">
         <v>2210</v>
       </c>
-      <c r="BS69" t="n">
-        <v>0.8167420814479637</v>
+      <c r="BS69" t="s">
+        <v>73</v>
       </c>
       <c r="BT69" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU69" t="n">
-        <v>-0.01861803532999917</v>
-      </c>
-      <c r="BV69" t="n">
-        <v>0.01825666328358588</v>
-      </c>
-      <c r="BW69" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX69" t="n">
         <v>5790</v>
       </c>
     </row>
-    <row r="70" spans="1:76">
+    <row r="70" spans="1:73">
       <c r="A70" t="n">
         <v>5221</v>
       </c>
@@ -16683,26 +16053,17 @@
       <c r="BR70" t="n">
         <v>2195</v>
       </c>
-      <c r="BS70" t="n">
-        <v>0.8177676537585421</v>
+      <c r="BS70" t="s">
+        <v>73</v>
       </c>
       <c r="BT70" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU70" t="n">
-        <v>-0.02041675082474925</v>
-      </c>
-      <c r="BV70" t="n">
-        <v>0.02002046609889752</v>
-      </c>
-      <c r="BW70" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX70" t="n">
         <v>5760</v>
       </c>
     </row>
-    <row r="71" spans="1:76">
+    <row r="71" spans="1:73">
       <c r="A71" t="n">
         <v>5221</v>
       </c>
@@ -16913,26 +16274,17 @@
       <c r="BR71" t="n">
         <v>2195</v>
       </c>
-      <c r="BS71" t="n">
-        <v>0.8041002277904328</v>
+      <c r="BS71" t="s">
+        <v>73</v>
       </c>
       <c r="BT71" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU71" t="n">
-        <v>-0.01520292916112065</v>
-      </c>
-      <c r="BV71" t="n">
-        <v>0.01490784358817743</v>
-      </c>
-      <c r="BW71" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX71" t="n">
         <v>5710</v>
       </c>
     </row>
-    <row r="72" spans="1:76">
+    <row r="72" spans="1:73">
       <c r="A72" t="n">
         <v>5221</v>
       </c>
@@ -17143,26 +16495,17 @@
       <c r="BR72" t="n">
         <v>2190</v>
       </c>
-      <c r="BS72" t="n">
-        <v>0.8082191780821918</v>
+      <c r="BS72" t="s">
+        <v>73</v>
       </c>
       <c r="BT72" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU72" t="n">
-        <v>-0.01258050775366537</v>
-      </c>
-      <c r="BV72" t="n">
-        <v>0.01233632281410124</v>
-      </c>
-      <c r="BW72" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX72" t="n">
         <v>5645</v>
       </c>
     </row>
-    <row r="73" spans="1:76">
+    <row r="73" spans="1:73">
       <c r="A73" t="n">
         <v>5221</v>
       </c>
@@ -17373,26 +16716,17 @@
       <c r="BR73" t="n">
         <v>2205</v>
       </c>
-      <c r="BS73" t="n">
-        <v>0.8027210884353742</v>
+      <c r="BS73" t="s">
+        <v>73</v>
       </c>
       <c r="BT73" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU73" t="n">
-        <v>-0.01440143738701738</v>
-      </c>
-      <c r="BV73" t="n">
-        <v>0.01412190859637996</v>
-      </c>
-      <c r="BW73" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX73" t="n">
         <v>5605</v>
       </c>
     </row>
-    <row r="74" spans="1:76">
+    <row r="74" spans="1:73">
       <c r="A74" t="n">
         <v>5223</v>
       </c>
@@ -17603,26 +16937,17 @@
       <c r="BR74" t="n">
         <v>5990</v>
       </c>
-      <c r="BS74" t="n">
-        <v>0.503338898163606</v>
+      <c r="BS74" t="s">
+        <v>73</v>
       </c>
       <c r="BT74" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU74" t="n">
-        <v>-0.02094417727641562</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>0.02053765531700025</v>
-      </c>
-      <c r="BW74" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX74" t="n">
         <v>10970</v>
       </c>
     </row>
-    <row r="75" spans="1:76">
+    <row r="75" spans="1:73">
       <c r="A75" t="n">
         <v>5223</v>
       </c>
@@ -17833,26 +17158,17 @@
       <c r="BR75" t="n">
         <v>6055</v>
       </c>
-      <c r="BS75" t="n">
-        <v>0.5037159372419489</v>
+      <c r="BS75" t="s">
+        <v>73</v>
       </c>
       <c r="BT75" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU75" t="n">
-        <v>-0.02035517636093509</v>
-      </c>
-      <c r="BV75" t="n">
-        <v>0.01996008678213312</v>
-      </c>
-      <c r="BW75" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX75" t="n">
         <v>11105</v>
       </c>
     </row>
-    <row r="76" spans="1:76">
+    <row r="76" spans="1:73">
       <c r="A76" t="n">
         <v>5223</v>
       </c>
@@ -18063,26 +17379,17 @@
       <c r="BR76" t="n">
         <v>6160</v>
       </c>
-      <c r="BS76" t="n">
-        <v>0.4951298701298702</v>
+      <c r="BS76" t="s">
+        <v>5</v>
       </c>
       <c r="BT76" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BU76" t="n">
-        <v>-0.01980677364307604</v>
-      </c>
-      <c r="BV76" t="n">
-        <v>0.01942232844263592</v>
-      </c>
-      <c r="BW76" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX76" t="n">
         <v>11210</v>
       </c>
     </row>
-    <row r="77" spans="1:76">
+    <row r="77" spans="1:73">
       <c r="A77" t="n">
         <v>5223</v>
       </c>
@@ -18293,26 +17600,17 @@
       <c r="BR77" t="n">
         <v>6245</v>
       </c>
-      <c r="BS77" t="n">
-        <v>0.4955964771817454</v>
+      <c r="BS77" t="s">
+        <v>5</v>
       </c>
       <c r="BT77" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BU77" t="n">
-        <v>-0.02461072149448706</v>
-      </c>
-      <c r="BV77" t="n">
-        <v>0.02413303270334821</v>
-      </c>
-      <c r="BW77" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX77" t="n">
         <v>11325</v>
       </c>
     </row>
-    <row r="78" spans="1:76">
+    <row r="78" spans="1:73">
       <c r="A78" t="n">
         <v>5223</v>
       </c>
@@ -18523,26 +17821,17 @@
       <c r="BR78" t="n">
         <v>6130</v>
       </c>
-      <c r="BS78" t="n">
-        <v>0.5057096247960848</v>
+      <c r="BS78" t="s">
+        <v>73</v>
       </c>
       <c r="BT78" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU78" t="n">
-        <v>-0.02151527446855295</v>
-      </c>
-      <c r="BV78" t="n">
-        <v>0.02109766763592891</v>
-      </c>
-      <c r="BW78" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX78" t="n">
         <v>11300</v>
       </c>
     </row>
-    <row r="79" spans="1:76">
+    <row r="79" spans="1:73">
       <c r="A79" t="n">
         <v>5223</v>
       </c>
@@ -18753,26 +18042,17 @@
       <c r="BR79" t="n">
         <v>6160</v>
       </c>
-      <c r="BS79" t="n">
-        <v>0.5073051948051948</v>
+      <c r="BS79" t="s">
+        <v>73</v>
       </c>
       <c r="BT79" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU79" t="n">
-        <v>-0.02273654014515425</v>
-      </c>
-      <c r="BV79" t="n">
-        <v>0.02229522880939971</v>
-      </c>
-      <c r="BW79" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX79" t="n">
         <v>11405</v>
       </c>
     </row>
-    <row r="80" spans="1:76">
+    <row r="80" spans="1:73">
       <c r="A80" t="n">
         <v>5223</v>
       </c>
@@ -18983,26 +18263,17 @@
       <c r="BR80" t="n">
         <v>6290</v>
       </c>
-      <c r="BS80" t="n">
-        <v>0.4944356120826709</v>
+      <c r="BS80" t="s">
+        <v>5</v>
       </c>
       <c r="BT80" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BU80" t="n">
-        <v>-0.01864826425486221</v>
-      </c>
-      <c r="BV80" t="n">
-        <v>0.01828630547154353</v>
-      </c>
-      <c r="BW80" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX80" t="n">
         <v>11540</v>
       </c>
     </row>
-    <row r="81" spans="1:76">
+    <row r="81" spans="1:73">
       <c r="A81" t="n">
         <v>5223</v>
       </c>
@@ -19213,26 +18484,17 @@
       <c r="BR81" t="n">
         <v>6350</v>
       </c>
-      <c r="BS81" t="n">
-        <v>0.5015748031496061</v>
+      <c r="BS81" t="s">
+        <v>73</v>
       </c>
       <c r="BT81" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU81" t="n">
-        <v>-0.02453317877518524</v>
-      </c>
-      <c r="BV81" t="n">
-        <v>0.02405699507148784</v>
-      </c>
-      <c r="BW81" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX81" t="n">
         <v>11730</v>
       </c>
     </row>
-    <row r="82" spans="1:76">
+    <row r="82" spans="1:73">
       <c r="A82" t="n">
         <v>5223</v>
       </c>
@@ -19443,26 +18705,17 @@
       <c r="BR82" t="n">
         <v>6775</v>
       </c>
-      <c r="BS82" t="n">
-        <v>0.5055350553505535</v>
+      <c r="BS82" t="s">
+        <v>73</v>
       </c>
       <c r="BT82" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU82" t="n">
-        <v>-0.02534630034564178</v>
-      </c>
-      <c r="BV82" t="n">
-        <v>0.02485433412780191</v>
-      </c>
-      <c r="BW82" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX82" t="n">
         <v>12420</v>
       </c>
     </row>
-    <row r="83" spans="1:76">
+    <row r="83" spans="1:73">
       <c r="A83" t="n">
         <v>5223</v>
       </c>
@@ -19673,26 +18926,17 @@
       <c r="BR83" t="n">
         <v>6920</v>
       </c>
-      <c r="BS83" t="n">
-        <v>0.5072254335260116</v>
+      <c r="BS83" t="s">
+        <v>73</v>
       </c>
       <c r="BT83" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU83" t="n">
-        <v>-0.0277818250495947</v>
-      </c>
-      <c r="BV83" t="n">
-        <v>0.02724258582304284</v>
-      </c>
-      <c r="BW83" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX83" t="n">
         <v>12705</v>
       </c>
     </row>
-    <row r="84" spans="1:76">
+    <row r="84" spans="1:73">
       <c r="A84" t="n">
         <v>5223</v>
       </c>
@@ -19903,26 +19147,17 @@
       <c r="BR84" t="n">
         <v>7290</v>
       </c>
-      <c r="BS84" t="n">
-        <v>0.5020576131687242</v>
+      <c r="BS84" t="s">
+        <v>73</v>
       </c>
       <c r="BT84" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU84" t="n">
-        <v>-0.02555134839384388</v>
-      </c>
-      <c r="BV84" t="n">
-        <v>0.02505540223765523</v>
-      </c>
-      <c r="BW84" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX84" t="n">
         <v>13225</v>
       </c>
     </row>
-    <row r="85" spans="1:76">
+    <row r="85" spans="1:73">
       <c r="A85" t="n">
         <v>5223</v>
       </c>
@@ -20133,26 +19368,17 @@
       <c r="BR85" t="n">
         <v>7315</v>
       </c>
-      <c r="BS85" t="n">
-        <v>0.5119617224880383</v>
+      <c r="BS85" t="s">
+        <v>73</v>
       </c>
       <c r="BT85" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU85" t="n">
-        <v>-0.02464277209804733</v>
-      </c>
-      <c r="BV85" t="n">
-        <v>0.02416446121161264</v>
-      </c>
-      <c r="BW85" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX85" t="n">
         <v>13355</v>
       </c>
     </row>
-    <row r="86" spans="1:76">
+    <row r="86" spans="1:73">
       <c r="A86" t="n">
         <v>5224</v>
       </c>
@@ -20363,26 +19589,17 @@
       <c r="BR86" t="n">
         <v>3890</v>
       </c>
-      <c r="BS86" t="n">
-        <v>0.6388174807197943</v>
+      <c r="BS86" t="s">
+        <v>73</v>
       </c>
       <c r="BT86" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU86" t="n">
-        <v>0.01030094930317105</v>
-      </c>
-      <c r="BV86" t="n">
-        <v>-0.01010101010101017</v>
-      </c>
-      <c r="BW86" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX86" t="n">
         <v>8500</v>
       </c>
     </row>
-    <row r="87" spans="1:76">
+    <row r="87" spans="1:73">
       <c r="A87" t="n">
         <v>5224</v>
       </c>
@@ -20593,26 +19810,17 @@
       <c r="BR87" t="n">
         <v>3670</v>
       </c>
-      <c r="BS87" t="n">
-        <v>0.659400544959128</v>
+      <c r="BS87" t="s">
+        <v>73</v>
       </c>
       <c r="BT87" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU87" t="n">
-        <v>0.0203320580787627</v>
-      </c>
-      <c r="BV87" t="n">
-        <v>-0.01993741722082665</v>
-      </c>
-      <c r="BW87" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX87" t="n">
         <v>8185</v>
       </c>
     </row>
-    <row r="88" spans="1:76">
+    <row r="88" spans="1:73">
       <c r="A88" t="n">
         <v>5224</v>
       </c>
@@ -20823,26 +20031,17 @@
       <c r="BR88" t="n">
         <v>3625</v>
       </c>
-      <c r="BS88" t="n">
-        <v>0.6551724137931034</v>
+      <c r="BS88" t="s">
+        <v>73</v>
       </c>
       <c r="BT88" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU88" t="n">
-        <v>0.01685936845285896</v>
-      </c>
-      <c r="BV88" t="n">
-        <v>-0.01653213175086243</v>
-      </c>
-      <c r="BW88" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX88" t="n">
         <v>8115</v>
       </c>
     </row>
-    <row r="89" spans="1:76">
+    <row r="89" spans="1:73">
       <c r="A89" t="n">
         <v>5224</v>
       </c>
@@ -21053,26 +20252,17 @@
       <c r="BR89" t="n">
         <v>3630</v>
       </c>
-      <c r="BS89" t="n">
-        <v>0.6542699724517906</v>
+      <c r="BS89" t="s">
+        <v>73</v>
       </c>
       <c r="BT89" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU89" t="n">
-        <v>0.01602946034956754</v>
-      </c>
-      <c r="BV89" t="n">
-        <v>-0.01571833198469164</v>
-      </c>
-      <c r="BW89" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX89" t="n">
         <v>8180</v>
       </c>
     </row>
-    <row r="90" spans="1:76">
+    <row r="90" spans="1:73">
       <c r="A90" t="n">
         <v>5224</v>
       </c>
@@ -21283,26 +20473,17 @@
       <c r="BR90" t="n">
         <v>3825</v>
       </c>
-      <c r="BS90" t="n">
-        <v>0.6418300653594771</v>
+      <c r="BS90" t="s">
+        <v>73</v>
       </c>
       <c r="BT90" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU90" t="n">
-        <v>0.01032473957385427</v>
-      </c>
-      <c r="BV90" t="n">
-        <v>-0.01012433860767525</v>
-      </c>
-      <c r="BW90" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX90" t="n">
         <v>8490</v>
       </c>
     </row>
-    <row r="91" spans="1:76">
+    <row r="91" spans="1:73">
       <c r="A91" t="n">
         <v>5224</v>
       </c>
@@ -21513,26 +20694,17 @@
       <c r="BR91" t="n">
         <v>3830</v>
       </c>
-      <c r="BS91" t="n">
-        <v>0.6370757180156659</v>
+      <c r="BS91" t="s">
+        <v>73</v>
       </c>
       <c r="BT91" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU91" t="n">
-        <v>0.01848418955411746</v>
-      </c>
-      <c r="BV91" t="n">
-        <v>-0.01812541542531898</v>
-      </c>
-      <c r="BW91" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX91" t="n">
         <v>8540</v>
       </c>
     </row>
-    <row r="92" spans="1:76">
+    <row r="92" spans="1:73">
       <c r="A92" t="n">
         <v>5224</v>
       </c>
@@ -21743,26 +20915,17 @@
       <c r="BR92" t="n">
         <v>3825</v>
       </c>
-      <c r="BS92" t="n">
-        <v>0.6392156862745098</v>
+      <c r="BS92" t="s">
+        <v>73</v>
       </c>
       <c r="BT92" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU92" t="n">
-        <v>0.01560246374540963</v>
-      </c>
-      <c r="BV92" t="n">
-        <v>-0.01529962329243872</v>
-      </c>
-      <c r="BW92" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX92" t="n">
         <v>8515</v>
       </c>
     </row>
-    <row r="93" spans="1:76">
+    <row r="93" spans="1:73">
       <c r="A93" t="n">
         <v>5224</v>
       </c>
@@ -21973,26 +21136,17 @@
       <c r="BR93" t="n">
         <v>4060</v>
       </c>
-      <c r="BS93" t="n">
-        <v>0.6096059113300494</v>
+      <c r="BS93" t="s">
+        <v>73</v>
       </c>
       <c r="BT93" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU93" t="n">
-        <v>0.01241801381584851</v>
-      </c>
-      <c r="BV93" t="n">
-        <v>-0.01217698284853763</v>
-      </c>
-      <c r="BW93" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX93" t="n">
         <v>8825</v>
       </c>
     </row>
-    <row r="94" spans="1:76">
+    <row r="94" spans="1:73">
       <c r="A94" t="n">
         <v>5224</v>
       </c>
@@ -22203,26 +21357,17 @@
       <c r="BR94" t="n">
         <v>4095</v>
       </c>
-      <c r="BS94" t="n">
-        <v>0.6092796092796093</v>
+      <c r="BS94" t="s">
+        <v>73</v>
       </c>
       <c r="BT94" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU94" t="n">
-        <v>0.01329952300047454</v>
-      </c>
-      <c r="BV94" t="n">
-        <v>-0.01304138213019401</v>
-      </c>
-      <c r="BW94" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX94" t="n">
         <v>8925</v>
       </c>
     </row>
-    <row r="95" spans="1:76">
+    <row r="95" spans="1:73">
       <c r="A95" t="n">
         <v>5224</v>
       </c>
@@ -22433,26 +21578,17 @@
       <c r="BR95" t="n">
         <v>4155</v>
       </c>
-      <c r="BS95" t="n">
-        <v>0.601684717208183</v>
+      <c r="BS95" t="s">
+        <v>73</v>
       </c>
       <c r="BT95" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU95" t="n">
-        <v>0.0177019791164793</v>
-      </c>
-      <c r="BV95" t="n">
-        <v>-0.01735838752340846</v>
-      </c>
-      <c r="BW95" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX95" t="n">
         <v>8965</v>
       </c>
     </row>
-    <row r="96" spans="1:76">
+    <row r="96" spans="1:73">
       <c r="A96" t="n">
         <v>5224</v>
       </c>
@@ -22663,26 +21799,17 @@
       <c r="BR96" t="n">
         <v>4170</v>
       </c>
-      <c r="BS96" t="n">
-        <v>0.5863309352517986</v>
+      <c r="BS96" t="s">
+        <v>73</v>
       </c>
       <c r="BT96" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU96" t="n">
-        <v>0.01687410850816284</v>
-      </c>
-      <c r="BV96" t="n">
-        <v>-0.01654658570487522</v>
-      </c>
-      <c r="BW96" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX96" t="n">
         <v>8865</v>
       </c>
     </row>
-    <row r="97" spans="1:76">
+    <row r="97" spans="1:73">
       <c r="A97" t="n">
         <v>5224</v>
       </c>
@@ -22893,26 +22020,17 @@
       <c r="BR97" t="n">
         <v>4190</v>
       </c>
-      <c r="BS97" t="n">
-        <v>0.5799522673031028</v>
+      <c r="BS97" t="s">
+        <v>73</v>
       </c>
       <c r="BT97" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU97" t="n">
-        <v>0.01412094471460168</v>
-      </c>
-      <c r="BV97" t="n">
-        <v>-0.01384686022618209</v>
-      </c>
-      <c r="BW97" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX97" t="n">
         <v>8830</v>
       </c>
     </row>
-    <row r="98" spans="1:76">
+    <row r="98" spans="1:73">
       <c r="A98" t="n">
         <v>5231</v>
       </c>
@@ -23123,26 +22241,17 @@
       <c r="BR98" t="n">
         <v>4940</v>
       </c>
-      <c r="BS98" t="n">
-        <v>0.5890688259109311</v>
+      <c r="BS98" t="s">
+        <v>73</v>
       </c>
       <c r="BT98" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU98" t="n">
-        <v>0.02935019111462955</v>
-      </c>
-      <c r="BV98" t="n">
-        <v>-0.02878051024134098</v>
-      </c>
-      <c r="BW98" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX98" t="n">
         <v>10550</v>
       </c>
     </row>
-    <row r="99" spans="1:76">
+    <row r="99" spans="1:73">
       <c r="A99" t="n">
         <v>5231</v>
       </c>
@@ -23353,26 +22462,17 @@
       <c r="BR99" t="n">
         <v>5090</v>
       </c>
-      <c r="BS99" t="n">
-        <v>0.5795677799607073</v>
+      <c r="BS99" t="s">
+        <v>73</v>
       </c>
       <c r="BT99" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU99" t="n">
-        <v>0.0311787636651244</v>
-      </c>
-      <c r="BV99" t="n">
-        <v>-0.03057359059339082</v>
-      </c>
-      <c r="BW99" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX99" t="n">
         <v>10695</v>
       </c>
     </row>
-    <row r="100" spans="1:76">
+    <row r="100" spans="1:73">
       <c r="A100" t="n">
         <v>5231</v>
       </c>
@@ -23583,26 +22683,17 @@
       <c r="BR100" t="n">
         <v>5065</v>
       </c>
-      <c r="BS100" t="n">
-        <v>0.5824284304047385</v>
+      <c r="BS100" t="s">
+        <v>73</v>
       </c>
       <c r="BT100" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU100" t="n">
-        <v>0.02590159684309212</v>
-      </c>
-      <c r="BV100" t="n">
-        <v>-0.02539885244011675</v>
-      </c>
-      <c r="BW100" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX100" t="n">
         <v>10720</v>
       </c>
     </row>
-    <row r="101" spans="1:76">
+    <row r="101" spans="1:73">
       <c r="A101" t="n">
         <v>5231</v>
       </c>
@@ -23813,26 +22904,17 @@
       <c r="BR101" t="n">
         <v>5080</v>
       </c>
-      <c r="BS101" t="n">
-        <v>0.5728346456692913</v>
+      <c r="BS101" t="s">
+        <v>73</v>
       </c>
       <c r="BT101" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU101" t="n">
-        <v>0.02292585091789312</v>
-      </c>
-      <c r="BV101" t="n">
-        <v>-0.02248086510090874</v>
-      </c>
-      <c r="BW101" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX101" t="n">
         <v>10615</v>
       </c>
     </row>
-    <row r="102" spans="1:76">
+    <row r="102" spans="1:73">
       <c r="A102" t="n">
         <v>5231</v>
       </c>
@@ -24043,26 +23125,17 @@
       <c r="BR102" t="n">
         <v>4995</v>
       </c>
-      <c r="BS102" t="n">
-        <v>0.5775775775775776</v>
+      <c r="BS102" t="s">
+        <v>73</v>
       </c>
       <c r="BT102" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU102" t="n">
-        <v>0.01685524765215674</v>
-      </c>
-      <c r="BV102" t="n">
-        <v>-0.0165280909340122</v>
-      </c>
-      <c r="BW102" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX102" t="n">
         <v>10570</v>
       </c>
     </row>
-    <row r="103" spans="1:76">
+    <row r="103" spans="1:73">
       <c r="A103" t="n">
         <v>5231</v>
       </c>
@@ -24273,26 +23346,17 @@
       <c r="BR103" t="n">
         <v>4965</v>
       </c>
-      <c r="BS103" t="n">
-        <v>0.5820745216515609</v>
+      <c r="BS103" t="s">
+        <v>73</v>
       </c>
       <c r="BT103" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU103" t="n">
-        <v>0.01548211831089297</v>
-      </c>
-      <c r="BV103" t="n">
-        <v>-0.01518161373682525</v>
-      </c>
-      <c r="BW103" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX103" t="n">
         <v>10545</v>
       </c>
     </row>
-    <row r="104" spans="1:76">
+    <row r="104" spans="1:73">
       <c r="A104" t="n">
         <v>5231</v>
       </c>
@@ -24503,26 +23567,17 @@
       <c r="BR104" t="n">
         <v>5015</v>
       </c>
-      <c r="BS104" t="n">
-        <v>0.5732801595214357</v>
+      <c r="BS104" t="s">
+        <v>73</v>
       </c>
       <c r="BT104" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU104" t="n">
-        <v>0.01063519417000569</v>
-      </c>
-      <c r="BV104" t="n">
-        <v>-0.01042876734713749</v>
-      </c>
-      <c r="BW104" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX104" t="n">
         <v>10575</v>
       </c>
     </row>
-    <row r="105" spans="1:76">
+    <row r="105" spans="1:73">
       <c r="A105" t="n">
         <v>5231</v>
       </c>
@@ -24733,26 +23788,17 @@
       <c r="BR105" t="n">
         <v>4965</v>
       </c>
-      <c r="BS105" t="n">
-        <v>0.5649546827794563</v>
+      <c r="BS105" t="s">
+        <v>73</v>
       </c>
       <c r="BT105" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU105" t="n">
-        <v>0.01532618120598173</v>
-      </c>
-      <c r="BV105" t="n">
-        <v>-0.01502870333745632</v>
-      </c>
-      <c r="BW105" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX105" t="n">
         <v>10410</v>
       </c>
     </row>
-    <row r="106" spans="1:76">
+    <row r="106" spans="1:73">
       <c r="A106" t="n">
         <v>5231</v>
       </c>
@@ -24963,26 +24009,17 @@
       <c r="BR106" t="n">
         <v>5020</v>
       </c>
-      <c r="BS106" t="n">
-        <v>0.5597609561752988</v>
+      <c r="BS106" t="s">
+        <v>73</v>
       </c>
       <c r="BT106" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU106" t="n">
-        <v>0.01185761196924706</v>
-      </c>
-      <c r="BV106" t="n">
-        <v>-0.01162745828079648</v>
-      </c>
-      <c r="BW106" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX106" t="n">
         <v>10445</v>
       </c>
     </row>
-    <row r="107" spans="1:76">
+    <row r="107" spans="1:73">
       <c r="A107" t="n">
         <v>5231</v>
       </c>
@@ -25193,26 +24230,17 @@
       <c r="BR107" t="n">
         <v>5050</v>
       </c>
-      <c r="BS107" t="n">
-        <v>0.5623762376237624</v>
+      <c r="BS107" t="s">
+        <v>73</v>
       </c>
       <c r="BT107" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU107" t="n">
-        <v>0.0125876890542953</v>
-      </c>
-      <c r="BV107" t="n">
-        <v>-0.01234336472723618</v>
-      </c>
-      <c r="BW107" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX107" t="n">
         <v>10555</v>
       </c>
     </row>
-    <row r="108" spans="1:76">
+    <row r="108" spans="1:73">
       <c r="A108" t="n">
         <v>5231</v>
       </c>
@@ -25423,26 +24451,17 @@
       <c r="BR108" t="n">
         <v>4985</v>
       </c>
-      <c r="BS108" t="n">
-        <v>0.5586760280842529</v>
+      <c r="BS108" t="s">
+        <v>73</v>
       </c>
       <c r="BT108" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU108" t="n">
-        <v>0.01926269160584115</v>
-      </c>
-      <c r="BV108" t="n">
-        <v>-0.01888880692028505</v>
-      </c>
-      <c r="BW108" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX108" t="n">
         <v>10390</v>
       </c>
     </row>
-    <row r="109" spans="1:76">
+    <row r="109" spans="1:73">
       <c r="A109" t="n">
         <v>5231</v>
       </c>
@@ -25653,26 +24672,17 @@
       <c r="BR109" t="n">
         <v>4980</v>
       </c>
-      <c r="BS109" t="n">
-        <v>0.5542168674698795</v>
+      <c r="BS109" t="s">
+        <v>73</v>
       </c>
       <c r="BT109" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU109" t="n">
-        <v>0.01837232679486767</v>
-      </c>
-      <c r="BV109" t="n">
-        <v>-0.01801572389807693</v>
-      </c>
-      <c r="BW109" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX109" t="n">
         <v>10360</v>
       </c>
     </row>
-    <row r="110" spans="1:76">
+    <row r="110" spans="1:73">
       <c r="A110" t="n">
         <v>5232</v>
       </c>
@@ -25883,26 +24893,17 @@
       <c r="BR110" t="n">
         <v>280</v>
       </c>
-      <c r="BS110" t="n">
-        <v>0.8035714285714286</v>
+      <c r="BS110" t="s">
+        <v>73</v>
       </c>
       <c r="BT110" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU110" t="n">
-        <v>-0.009896990506968351</v>
-      </c>
-      <c r="BV110" t="n">
-        <v>0.009704892057833314</v>
-      </c>
-      <c r="BW110" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX110" t="n">
         <v>690</v>
       </c>
     </row>
-    <row r="111" spans="1:76">
+    <row r="111" spans="1:73">
       <c r="A111" t="n">
         <v>5232</v>
       </c>
@@ -26113,26 +25114,17 @@
       <c r="BR111" t="n">
         <v>265</v>
       </c>
-      <c r="BS111" t="n">
-        <v>0.8301886792452831</v>
+      <c r="BS111" t="s">
+        <v>73</v>
       </c>
       <c r="BT111" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU111" t="n">
-        <v>-0.002525479627355498</v>
-      </c>
-      <c r="BV111" t="n">
-        <v>0.002476460612999776</v>
-      </c>
-      <c r="BW111" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX111" t="n">
         <v>685</v>
       </c>
     </row>
-    <row r="112" spans="1:76">
+    <row r="112" spans="1:73">
       <c r="A112" t="n">
         <v>5232</v>
       </c>
@@ -26343,26 +25335,17 @@
       <c r="BR112" t="n">
         <v>270</v>
       </c>
-      <c r="BS112" t="n">
-        <v>0.8333333333333334</v>
+      <c r="BS112" t="s">
+        <v>73</v>
       </c>
       <c r="BT112" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU112" t="n">
-        <v>-0.009896990506968351</v>
-      </c>
-      <c r="BV112" t="n">
-        <v>0.009704892057833314</v>
-      </c>
-      <c r="BW112" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX112" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="113" spans="1:76">
+    <row r="113" spans="1:73">
       <c r="A113" t="n">
         <v>5232</v>
       </c>
@@ -26573,26 +25556,17 @@
       <c r="BR113" t="n">
         <v>275</v>
       </c>
-      <c r="BS113" t="n">
-        <v>0.8181818181818181</v>
+      <c r="BS113" t="s">
+        <v>73</v>
       </c>
       <c r="BT113" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU113" t="n">
-        <v>0.04864776256589931</v>
-      </c>
-      <c r="BV113" t="n">
-        <v>-0.04770351999678524</v>
-      </c>
-      <c r="BW113" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX113" t="n">
         <v>690</v>
       </c>
     </row>
-    <row r="114" spans="1:76">
+    <row r="114" spans="1:73">
       <c r="A114" t="n">
         <v>5232</v>
       </c>
@@ -26803,26 +25777,17 @@
       <c r="BR114" t="n">
         <v>285</v>
       </c>
-      <c r="BS114" t="n">
-        <v>0.8771929824561404</v>
+      <c r="BS114" t="s">
+        <v>73</v>
       </c>
       <c r="BT114" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU114" t="n">
-        <v>0.02996736438146475</v>
-      </c>
-      <c r="BV114" t="n">
-        <v>-0.02938570430830501</v>
-      </c>
-      <c r="BW114" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX114" t="n">
         <v>760</v>
       </c>
     </row>
-    <row r="115" spans="1:76">
+    <row r="115" spans="1:73">
       <c r="A115" t="n">
         <v>5232</v>
       </c>
@@ -27033,26 +25998,17 @@
       <c r="BR115" t="n">
         <v>300</v>
       </c>
-      <c r="BS115" t="n">
-        <v>0.8666666666666667</v>
+      <c r="BS115" t="s">
+        <v>73</v>
       </c>
       <c r="BT115" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU115" t="n">
-        <v>0.009649402857682565</v>
-      </c>
-      <c r="BV115" t="n">
-        <v>-0.009462110031369875</v>
-      </c>
-      <c r="BW115" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX115" t="n">
         <v>775</v>
       </c>
     </row>
-    <row r="116" spans="1:76">
+    <row r="116" spans="1:73">
       <c r="A116" t="n">
         <v>5232</v>
       </c>
@@ -27263,26 +26219,17 @@
       <c r="BR116" t="n">
         <v>310</v>
       </c>
-      <c r="BS116" t="n">
-        <v>0.8709677419354839</v>
+      <c r="BS116" t="s">
+        <v>73</v>
       </c>
       <c r="BT116" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU116" t="n">
-        <v>0.002270443113597587</v>
-      </c>
-      <c r="BV116" t="n">
-        <v>-0.002226374302915612</v>
-      </c>
-      <c r="BW116" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX116" t="n">
         <v>830</v>
       </c>
     </row>
-    <row r="117" spans="1:76">
+    <row r="117" spans="1:73">
       <c r="A117" t="n">
         <v>5232</v>
       </c>
@@ -27493,26 +26440,17 @@
       <c r="BR117" t="n">
         <v>330</v>
       </c>
-      <c r="BS117" t="n">
-        <v>0.8181818181818181</v>
+      <c r="BS117" t="s">
+        <v>73</v>
       </c>
       <c r="BT117" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU117" t="n">
-        <v>-0.003849703138663285</v>
-      </c>
-      <c r="BV117" t="n">
-        <v>0.003774981231832286</v>
-      </c>
-      <c r="BW117" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX117" t="n">
         <v>835</v>
       </c>
     </row>
-    <row r="118" spans="1:76">
+    <row r="118" spans="1:73">
       <c r="A118" t="n">
         <v>5232</v>
       </c>
@@ -27723,26 +26661,17 @@
       <c r="BR118" t="n">
         <v>335</v>
       </c>
-      <c r="BS118" t="n">
-        <v>0.8507462686567164</v>
+      <c r="BS118" t="s">
+        <v>73</v>
       </c>
       <c r="BT118" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU118" t="n">
-        <v>0.001200778619481868</v>
-      </c>
-      <c r="BV118" t="n">
-        <v>-0.001177471765706928</v>
-      </c>
-      <c r="BW118" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX118" t="n">
         <v>910</v>
       </c>
     </row>
-    <row r="119" spans="1:76">
+    <row r="119" spans="1:73">
       <c r="A119" t="n">
         <v>5232</v>
       </c>
@@ -27953,26 +26882,17 @@
       <c r="BR119" t="n">
         <v>330</v>
       </c>
-      <c r="BS119" t="n">
-        <v>0.8636363636363635</v>
+      <c r="BS119" t="s">
+        <v>73</v>
       </c>
       <c r="BT119" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU119" t="n">
-        <v>-0.01547653189098486</v>
-      </c>
-      <c r="BV119" t="n">
-        <v>0.01517613574812149</v>
-      </c>
-      <c r="BW119" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX119" t="n">
         <v>905</v>
       </c>
     </row>
-    <row r="120" spans="1:76">
+    <row r="120" spans="1:73">
       <c r="A120" t="n">
         <v>5232</v>
       </c>
@@ -28183,26 +27103,17 @@
       <c r="BR120" t="n">
         <v>345</v>
       </c>
-      <c r="BS120" t="n">
-        <v>0.855072463768116</v>
+      <c r="BS120" t="s">
+        <v>73</v>
       </c>
       <c r="BT120" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU120" t="n">
-        <v>-0.015240360827111</v>
-      </c>
-      <c r="BV120" t="n">
-        <v>0.01494454871361195</v>
-      </c>
-      <c r="BW120" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX120" t="n">
         <v>945</v>
       </c>
     </row>
-    <row r="121" spans="1:76">
+    <row r="121" spans="1:73">
       <c r="A121" t="n">
         <v>5232</v>
       </c>
@@ -28413,26 +27324,17 @@
       <c r="BR121" t="n">
         <v>445</v>
       </c>
-      <c r="BS121" t="n">
-        <v>0.8089887640449437</v>
+      <c r="BS121" t="s">
+        <v>73</v>
       </c>
       <c r="BT121" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU121" t="n">
-        <v>-0.01412250092749945</v>
-      </c>
-      <c r="BV121" t="n">
-        <v>0.01384838623332341</v>
-      </c>
-      <c r="BW121" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX121" t="n">
         <v>1195</v>
       </c>
     </row>
-    <row r="122" spans="1:76">
+    <row r="122" spans="1:73">
       <c r="A122" t="n">
         <v>5233</v>
       </c>
@@ -28643,26 +27545,17 @@
       <c r="BR122" t="n">
         <v>3740</v>
       </c>
-      <c r="BS122" t="n">
-        <v>0.6991978609625669</v>
+      <c r="BS122" t="s">
+        <v>73</v>
       </c>
       <c r="BT122" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU122" t="n">
-        <v>0.02356705178202001</v>
-      </c>
-      <c r="BV122" t="n">
-        <v>-0.02310962039468833</v>
-      </c>
-      <c r="BW122" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX122" t="n">
         <v>8450</v>
       </c>
     </row>
-    <row r="123" spans="1:76">
+    <row r="123" spans="1:73">
       <c r="A123" t="n">
         <v>5233</v>
       </c>
@@ -28873,26 +27766,17 @@
       <c r="BR123" t="n">
         <v>3765</v>
       </c>
-      <c r="BS123" t="n">
-        <v>0.703851261620186</v>
+      <c r="BS123" t="s">
+        <v>73</v>
       </c>
       <c r="BT123" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU123" t="n">
-        <v>0.02513177048063375</v>
-      </c>
-      <c r="BV123" t="n">
-        <v>-0.02464396824116011</v>
-      </c>
-      <c r="BW123" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX123" t="n">
         <v>8505</v>
       </c>
     </row>
-    <row r="124" spans="1:76">
+    <row r="124" spans="1:73">
       <c r="A124" t="n">
         <v>5233</v>
       </c>
@@ -29103,26 +27987,17 @@
       <c r="BR124" t="n">
         <v>3780</v>
       </c>
-      <c r="BS124" t="n">
-        <v>0.6917989417989419</v>
+      <c r="BS124" t="s">
+        <v>73</v>
       </c>
       <c r="BT124" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU124" t="n">
-        <v>0.02812266090035276</v>
-      </c>
-      <c r="BV124" t="n">
-        <v>-0.02757680612351887</v>
-      </c>
-      <c r="BW124" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX124" t="n">
         <v>8500</v>
       </c>
     </row>
-    <row r="125" spans="1:76">
+    <row r="125" spans="1:73">
       <c r="A125" t="n">
         <v>5233</v>
       </c>
@@ -29333,26 +28208,17 @@
       <c r="BR125" t="n">
         <v>3780</v>
       </c>
-      <c r="BS125" t="n">
-        <v>0.6878306878306879</v>
+      <c r="BS125" t="s">
+        <v>73</v>
       </c>
       <c r="BT125" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU125" t="n">
-        <v>0.03021154438572105</v>
-      </c>
-      <c r="BV125" t="n">
-        <v>-0.02962514483139334</v>
-      </c>
-      <c r="BW125" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX125" t="n">
         <v>8435</v>
       </c>
     </row>
-    <row r="126" spans="1:76">
+    <row r="126" spans="1:73">
       <c r="A126" t="n">
         <v>5233</v>
       </c>
@@ -29563,26 +28429,17 @@
       <c r="BR126" t="n">
         <v>3745</v>
       </c>
-      <c r="BS126" t="n">
-        <v>0.6889185580774366</v>
+      <c r="BS126" t="s">
+        <v>73</v>
       </c>
       <c r="BT126" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU126" t="n">
-        <v>0.02817812044571799</v>
-      </c>
-      <c r="BV126" t="n">
-        <v>-0.02763118921108143</v>
-      </c>
-      <c r="BW126" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX126" t="n">
         <v>8355</v>
       </c>
     </row>
-    <row r="127" spans="1:76">
+    <row r="127" spans="1:73">
       <c r="A127" t="n">
         <v>5233</v>
       </c>
@@ -29793,26 +28650,17 @@
       <c r="BR127" t="n">
         <v>3770</v>
       </c>
-      <c r="BS127" t="n">
-        <v>0.6763925729442971</v>
+      <c r="BS127" t="s">
+        <v>73</v>
       </c>
       <c r="BT127" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU127" t="n">
-        <v>0.02764114702986142</v>
-      </c>
-      <c r="BV127" t="n">
-        <v>-0.02710463833330246</v>
-      </c>
-      <c r="BW127" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX127" t="n">
         <v>8340</v>
       </c>
     </row>
-    <row r="128" spans="1:76">
+    <row r="128" spans="1:73">
       <c r="A128" t="n">
         <v>5233</v>
       </c>
@@ -30023,26 +28871,17 @@
       <c r="BR128" t="n">
         <v>3790</v>
       </c>
-      <c r="BS128" t="n">
-        <v>0.6688654353562005</v>
+      <c r="BS128" t="s">
+        <v>73</v>
       </c>
       <c r="BT128" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU128" t="n">
-        <v>0.02845352811987856</v>
-      </c>
-      <c r="BV128" t="n">
-        <v>-0.0279012512817427</v>
-      </c>
-      <c r="BW128" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX128" t="n">
         <v>8295</v>
       </c>
     </row>
-    <row r="129" spans="1:76">
+    <row r="129" spans="1:73">
       <c r="A129" t="n">
         <v>5233</v>
       </c>
@@ -30253,26 +29092,17 @@
       <c r="BR129" t="n">
         <v>3785</v>
       </c>
-      <c r="BS129" t="n">
-        <v>0.6605019815059445</v>
+      <c r="BS129" t="s">
+        <v>73</v>
       </c>
       <c r="BT129" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU129" t="n">
-        <v>0.02673772498905236</v>
-      </c>
-      <c r="BV129" t="n">
-        <v>-0.02621875151927067</v>
-      </c>
-      <c r="BW129" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX129" t="n">
         <v>8270</v>
       </c>
     </row>
-    <row r="130" spans="1:76">
+    <row r="130" spans="1:73">
       <c r="A130" t="n">
         <v>5233</v>
       </c>
@@ -30483,26 +29313,17 @@
       <c r="BR130" t="n">
         <v>3780</v>
       </c>
-      <c r="BS130" t="n">
-        <v>0.6534391534391535</v>
+      <c r="BS130" t="s">
+        <v>73</v>
       </c>
       <c r="BT130" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU130" t="n">
-        <v>0.0281428718329052</v>
-      </c>
-      <c r="BV130" t="n">
-        <v>-0.02759662476623381</v>
-      </c>
-      <c r="BW130" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX130" t="n">
         <v>8230</v>
       </c>
     </row>
-    <row r="131" spans="1:76">
+    <row r="131" spans="1:73">
       <c r="A131" t="n">
         <v>5233</v>
       </c>
@@ -30713,26 +29534,17 @@
       <c r="BR131" t="n">
         <v>3740</v>
       </c>
-      <c r="BS131" t="n">
-        <v>0.6510695187165776</v>
+      <c r="BS131" t="s">
+        <v>73</v>
       </c>
       <c r="BT131" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU131" t="n">
-        <v>0.03084457512473093</v>
-      </c>
-      <c r="BV131" t="n">
-        <v>-0.03024588858042043</v>
-      </c>
-      <c r="BW131" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX131" t="n">
         <v>8180</v>
       </c>
     </row>
-    <row r="132" spans="1:76">
+    <row r="132" spans="1:73">
       <c r="A132" t="n">
         <v>5233</v>
       </c>
@@ -30943,26 +29755,17 @@
       <c r="BR132" t="n">
         <v>3730</v>
       </c>
-      <c r="BS132" t="n">
-        <v>0.6447721179624666</v>
+      <c r="BS132" t="s">
+        <v>73</v>
       </c>
       <c r="BT132" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU132" t="n">
-        <v>0.03287949343715735</v>
-      </c>
-      <c r="BV132" t="n">
-        <v>-0.03224130956770965</v>
-      </c>
-      <c r="BW132" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX132" t="n">
         <v>8145</v>
       </c>
     </row>
-    <row r="133" spans="1:76">
+    <row r="133" spans="1:73">
       <c r="A133" t="n">
         <v>5233</v>
       </c>
@@ -31173,26 +29976,17 @@
       <c r="BR133" t="n">
         <v>3765</v>
       </c>
-      <c r="BS133" t="n">
-        <v>0.6387782204515272</v>
+      <c r="BS133" t="s">
+        <v>73</v>
       </c>
       <c r="BT133" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU133" t="n">
-        <v>0.03837014506873226</v>
-      </c>
-      <c r="BV133" t="n">
-        <v>-0.03762538883646149</v>
-      </c>
-      <c r="BW133" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX133" t="n">
         <v>8160</v>
       </c>
     </row>
-    <row r="134" spans="1:76">
+    <row r="134" spans="1:73">
       <c r="A134" t="n">
         <v>5235</v>
       </c>
@@ -31403,26 +30197,17 @@
       <c r="BR134" t="n">
         <v>3275</v>
       </c>
-      <c r="BS134" t="n">
-        <v>0.667175572519084</v>
+      <c r="BS134" t="s">
+        <v>73</v>
       </c>
       <c r="BT134" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU134" t="n">
-        <v>-0.0008364930075959176</v>
-      </c>
-      <c r="BV134" t="n">
-        <v>0.0008202568589040782</v>
-      </c>
-      <c r="BW134" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX134" t="n">
         <v>7245</v>
       </c>
     </row>
-    <row r="135" spans="1:76">
+    <row r="135" spans="1:73">
       <c r="A135" t="n">
         <v>5235</v>
       </c>
@@ -31633,26 +30418,17 @@
       <c r="BR135" t="n">
         <v>3305</v>
       </c>
-      <c r="BS135" t="n">
-        <v>0.6611195158850228</v>
+      <c r="BS135" t="s">
+        <v>73</v>
       </c>
       <c r="BT135" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU135" t="n">
-        <v>-0.0105949151721425</v>
-      </c>
-      <c r="BV135" t="n">
-        <v>0.01038927015592728</v>
-      </c>
-      <c r="BW135" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX135" t="n">
         <v>7235</v>
       </c>
     </row>
-    <row r="136" spans="1:76">
+    <row r="136" spans="1:73">
       <c r="A136" t="n">
         <v>5235</v>
       </c>
@@ -31863,26 +30639,17 @@
       <c r="BR136" t="n">
         <v>3315</v>
       </c>
-      <c r="BS136" t="n">
-        <v>0.6621417797888386</v>
+      <c r="BS136" t="s">
+        <v>73</v>
       </c>
       <c r="BT136" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU136" t="n">
-        <v>-0.01128230873811642</v>
-      </c>
-      <c r="BV136" t="n">
-        <v>0.01106332156118328</v>
-      </c>
-      <c r="BW136" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX136" t="n">
         <v>7290</v>
       </c>
     </row>
-    <row r="137" spans="1:76">
+    <row r="137" spans="1:73">
       <c r="A137" t="n">
         <v>5235</v>
       </c>
@@ -32093,26 +30860,17 @@
       <c r="BR137" t="n">
         <v>3290</v>
       </c>
-      <c r="BS137" t="n">
-        <v>0.6656534954407295</v>
+      <c r="BS137" t="s">
+        <v>73</v>
       </c>
       <c r="BT137" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU137" t="n">
-        <v>-0.007803216511446109</v>
-      </c>
-      <c r="BV137" t="n">
-        <v>0.00765175776355087</v>
-      </c>
-      <c r="BW137" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX137" t="n">
         <v>7235</v>
       </c>
     </row>
-    <row r="138" spans="1:76">
+    <row r="138" spans="1:73">
       <c r="A138" t="n">
         <v>5235</v>
       </c>
@@ -32323,26 +31081,17 @@
       <c r="BR138" t="n">
         <v>3295</v>
       </c>
-      <c r="BS138" t="n">
-        <v>0.6585735963581183</v>
+      <c r="BS138" t="s">
+        <v>73</v>
       </c>
       <c r="BT138" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU138" t="n">
-        <v>-0.01059395185307377</v>
-      </c>
-      <c r="BV138" t="n">
-        <v>0.01038832553467406</v>
-      </c>
-      <c r="BW138" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX138" t="n">
         <v>7245</v>
       </c>
     </row>
-    <row r="139" spans="1:76">
+    <row r="139" spans="1:73">
       <c r="A139" t="n">
         <v>5235</v>
       </c>
@@ -32553,26 +31302,17 @@
       <c r="BR139" t="n">
         <v>3280</v>
       </c>
-      <c r="BS139" t="n">
-        <v>0.6646341463414633</v>
+      <c r="BS139" t="s">
+        <v>73</v>
       </c>
       <c r="BT139" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU139" t="n">
-        <v>-0.003606974649139394</v>
-      </c>
-      <c r="BV139" t="n">
-        <v>0.003536964049888902</v>
-      </c>
-      <c r="BW139" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX139" t="n">
         <v>7225</v>
       </c>
     </row>
-    <row r="140" spans="1:76">
+    <row r="140" spans="1:73">
       <c r="A140" t="n">
         <v>5235</v>
       </c>
@@ -32783,26 +31523,17 @@
       <c r="BR140" t="n">
         <v>3290</v>
       </c>
-      <c r="BS140" t="n">
-        <v>0.6565349544072949</v>
+      <c r="BS140" t="s">
+        <v>73</v>
       </c>
       <c r="BT140" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU140" t="n">
-        <v>-0.004247217133502845</v>
-      </c>
-      <c r="BV140" t="n">
-        <v>0.004164779565849264</v>
-      </c>
-      <c r="BW140" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX140" t="n">
         <v>7150</v>
       </c>
     </row>
-    <row r="141" spans="1:76">
+    <row r="141" spans="1:73">
       <c r="A141" t="n">
         <v>5235</v>
       </c>
@@ -33013,26 +31744,17 @@
       <c r="BR141" t="n">
         <v>3295</v>
       </c>
-      <c r="BS141" t="n">
-        <v>0.6525037936267072</v>
+      <c r="BS141" t="s">
+        <v>73</v>
       </c>
       <c r="BT141" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU141" t="n">
-        <v>-0.007056211349424135</v>
-      </c>
-      <c r="BV141" t="n">
-        <v>0.006919251810457383</v>
-      </c>
-      <c r="BW141" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX141" t="n">
         <v>7110</v>
       </c>
     </row>
-    <row r="142" spans="1:76">
+    <row r="142" spans="1:73">
       <c r="A142" t="n">
         <v>5235</v>
       </c>
@@ -33243,26 +31965,17 @@
       <c r="BR142" t="n">
         <v>3280</v>
       </c>
-      <c r="BS142" t="n">
-        <v>0.6478658536585367</v>
+      <c r="BS142" t="s">
+        <v>73</v>
       </c>
       <c r="BT142" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU142" t="n">
-        <v>-0.006308159694932147</v>
-      </c>
-      <c r="BV142" t="n">
-        <v>0.006185719677086476</v>
-      </c>
-      <c r="BW142" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX142" t="n">
         <v>7035</v>
       </c>
     </row>
-    <row r="143" spans="1:76">
+    <row r="143" spans="1:73">
       <c r="A143" t="n">
         <v>5235</v>
       </c>
@@ -33473,26 +32186,17 @@
       <c r="BR143" t="n">
         <v>3275</v>
       </c>
-      <c r="BS143" t="n">
-        <v>0.6458015267175572</v>
+      <c r="BS143" t="s">
+        <v>73</v>
       </c>
       <c r="BT143" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU143" t="n">
-        <v>-0.005518824363151875</v>
-      </c>
-      <c r="BV143" t="n">
-        <v>0.005411705173690828</v>
-      </c>
-      <c r="BW143" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX143" t="n">
         <v>6920</v>
       </c>
     </row>
-    <row r="144" spans="1:76">
+    <row r="144" spans="1:73">
       <c r="A144" t="n">
         <v>5235</v>
       </c>
@@ -33703,26 +32407,17 @@
       <c r="BR144" t="n">
         <v>3295</v>
       </c>
-      <c r="BS144" t="n">
-        <v>0.637329286798179</v>
+      <c r="BS144" t="s">
+        <v>73</v>
       </c>
       <c r="BT144" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU144" t="n">
-        <v>-0.005525142063215416</v>
-      </c>
-      <c r="BV144" t="n">
-        <v>0.005417900248559815</v>
-      </c>
-      <c r="BW144" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX144" t="n">
         <v>6930</v>
       </c>
     </row>
-    <row r="145" spans="1:76">
+    <row r="145" spans="1:73">
       <c r="A145" t="n">
         <v>5235</v>
       </c>
@@ -33933,26 +32628,17 @@
       <c r="BR145" t="n">
         <v>3340</v>
       </c>
-      <c r="BS145" t="n">
-        <v>0.6272455089820359</v>
+      <c r="BS145" t="s">
+        <v>73</v>
       </c>
       <c r="BT145" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU145" t="n">
-        <v>-0.009169922839216804</v>
-      </c>
-      <c r="BV145" t="n">
-        <v>0.008991936616550289</v>
-      </c>
-      <c r="BW145" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX145" t="n">
         <v>6945</v>
       </c>
     </row>
-    <row r="146" spans="1:76">
+    <row r="146" spans="1:73">
       <c r="A146" t="n">
         <v>5236</v>
       </c>
@@ -34163,26 +32849,17 @@
       <c r="BR146" t="n">
         <v>2235</v>
       </c>
-      <c r="BS146" t="n">
-        <v>0.8501118568232662</v>
+      <c r="BS146" t="s">
+        <v>73</v>
       </c>
       <c r="BT146" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU146" t="n">
-        <v>-0.01229200313267653</v>
-      </c>
-      <c r="BV146" t="n">
-        <v>0.01205341800552207</v>
-      </c>
-      <c r="BW146" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX146" t="n">
         <v>6325</v>
       </c>
     </row>
-    <row r="147" spans="1:76">
+    <row r="147" spans="1:73">
       <c r="A147" t="n">
         <v>5236</v>
       </c>
@@ -34393,26 +33070,17 @@
       <c r="BR147" t="n">
         <v>2255</v>
       </c>
-      <c r="BS147" t="n">
-        <v>0.8470066518847007</v>
+      <c r="BS147" t="s">
+        <v>73</v>
       </c>
       <c r="BT147" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU147" t="n">
-        <v>-0.006736123557024687</v>
-      </c>
-      <c r="BV147" t="n">
-        <v>0.006605376853006439</v>
-      </c>
-      <c r="BW147" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX147" t="n">
         <v>6390</v>
       </c>
     </row>
-    <row r="148" spans="1:76">
+    <row r="148" spans="1:73">
       <c r="A148" t="n">
         <v>5236</v>
       </c>
@@ -34623,26 +33291,17 @@
       <c r="BR148" t="n">
         <v>2280</v>
       </c>
-      <c r="BS148" t="n">
-        <v>0.844298245614035</v>
+      <c r="BS148" t="s">
+        <v>73</v>
       </c>
       <c r="BT148" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU148" t="n">
-        <v>-0.008336098713294549</v>
-      </c>
-      <c r="BV148" t="n">
-        <v>0.008174296836902517</v>
-      </c>
-      <c r="BW148" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX148" t="n">
         <v>6470</v>
       </c>
     </row>
-    <row r="149" spans="1:76">
+    <row r="149" spans="1:73">
       <c r="A149" t="n">
         <v>5236</v>
       </c>
@@ -34853,26 +33512,17 @@
       <c r="BR149" t="n">
         <v>2295</v>
       </c>
-      <c r="BS149" t="n">
-        <v>0.840958605664488</v>
+      <c r="BS149" t="s">
+        <v>73</v>
       </c>
       <c r="BT149" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU149" t="n">
-        <v>-0.01375450383969179</v>
-      </c>
-      <c r="BV149" t="n">
-        <v>0.0134875318895451</v>
-      </c>
-      <c r="BW149" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX149" t="n">
         <v>6545</v>
       </c>
     </row>
-    <row r="150" spans="1:76">
+    <row r="150" spans="1:73">
       <c r="A150" t="n">
         <v>5236</v>
       </c>
@@ -35083,26 +33733,17 @@
       <c r="BR150" t="n">
         <v>2285</v>
       </c>
-      <c r="BS150" t="n">
-        <v>0.8424507658643325</v>
+      <c r="BS150" t="s">
+        <v>73</v>
       </c>
       <c r="BT150" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU150" t="n">
-        <v>-0.009896990506968351</v>
-      </c>
-      <c r="BV150" t="n">
-        <v>0.009704892057833314</v>
-      </c>
-      <c r="BW150" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX150" t="n">
         <v>6530</v>
       </c>
     </row>
-    <row r="151" spans="1:76">
+    <row r="151" spans="1:73">
       <c r="A151" t="n">
         <v>5236</v>
       </c>
@@ -35313,26 +33954,17 @@
       <c r="BR151" t="n">
         <v>2295</v>
       </c>
-      <c r="BS151" t="n">
-        <v>0.8387799564270153</v>
+      <c r="BS151" t="s">
+        <v>73</v>
       </c>
       <c r="BT151" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU151" t="n">
-        <v>-0.01605489898566925</v>
-      </c>
-      <c r="BV151" t="n">
-        <v>0.01574327686235866</v>
-      </c>
-      <c r="BW151" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX151" t="n">
         <v>6560</v>
       </c>
     </row>
-    <row r="152" spans="1:76">
+    <row r="152" spans="1:73">
       <c r="A152" t="n">
         <v>5236</v>
       </c>
@@ -35543,26 +34175,17 @@
       <c r="BR152" t="n">
         <v>2300</v>
       </c>
-      <c r="BS152" t="n">
-        <v>0.8369565217391304</v>
+      <c r="BS152" t="s">
+        <v>73</v>
       </c>
       <c r="BT152" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU152" t="n">
-        <v>-0.01995726704075418</v>
-      </c>
-      <c r="BV152" t="n">
-        <v>0.01956990079595444</v>
-      </c>
-      <c r="BW152" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX152" t="n">
         <v>6525</v>
       </c>
     </row>
-    <row r="153" spans="1:76">
+    <row r="153" spans="1:73">
       <c r="A153" t="n">
         <v>5236</v>
       </c>
@@ -35773,26 +34396,17 @@
       <c r="BR153" t="n">
         <v>2325</v>
       </c>
-      <c r="BS153" t="n">
-        <v>0.8279569892473118</v>
+      <c r="BS153" t="s">
+        <v>73</v>
       </c>
       <c r="BT153" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU153" t="n">
-        <v>-0.02225047051316986</v>
-      </c>
-      <c r="BV153" t="n">
-        <v>0.02181859368403716</v>
-      </c>
-      <c r="BW153" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX153" t="n">
         <v>6540</v>
       </c>
     </row>
-    <row r="154" spans="1:76">
+    <row r="154" spans="1:73">
       <c r="A154" t="n">
         <v>5236</v>
       </c>
@@ -36003,26 +34617,17 @@
       <c r="BR154" t="n">
         <v>2335</v>
       </c>
-      <c r="BS154" t="n">
-        <v>0.8265524625267666</v>
+      <c r="BS154" t="s">
+        <v>73</v>
       </c>
       <c r="BT154" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU154" t="n">
-        <v>-0.01911979407324216</v>
-      </c>
-      <c r="BV154" t="n">
-        <v>0.01874868299794441</v>
-      </c>
-      <c r="BW154" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX154" t="n">
         <v>6570</v>
       </c>
     </row>
-    <row r="155" spans="1:76">
+    <row r="155" spans="1:73">
       <c r="A155" t="n">
         <v>5236</v>
       </c>
@@ -36233,26 +34838,17 @@
       <c r="BR155" t="n">
         <v>2345</v>
       </c>
-      <c r="BS155" t="n">
-        <v>0.8187633262260128</v>
+      <c r="BS155" t="s">
+        <v>73</v>
       </c>
       <c r="BT155" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU155" t="n">
-        <v>-0.01835766597960875</v>
-      </c>
-      <c r="BV155" t="n">
-        <v>0.01800134764607697</v>
-      </c>
-      <c r="BW155" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX155" t="n">
         <v>6565</v>
       </c>
     </row>
-    <row r="156" spans="1:76">
+    <row r="156" spans="1:73">
       <c r="A156" t="n">
         <v>5236</v>
       </c>
@@ -36463,26 +35059,17 @@
       <c r="BR156" t="n">
         <v>2360</v>
       </c>
-      <c r="BS156" t="n">
-        <v>0.8114406779661016</v>
+      <c r="BS156" t="s">
+        <v>73</v>
       </c>
       <c r="BT156" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU156" t="n">
-        <v>-0.02228836462361827</v>
-      </c>
-      <c r="BV156" t="n">
-        <v>0.02185575227798264</v>
-      </c>
-      <c r="BW156" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX156" t="n">
         <v>6520</v>
       </c>
     </row>
-    <row r="157" spans="1:76">
+    <row r="157" spans="1:73">
       <c r="A157" t="n">
         <v>5236</v>
       </c>
@@ -36693,26 +35280,17 @@
       <c r="BR157" t="n">
         <v>2395</v>
       </c>
-      <c r="BS157" t="n">
-        <v>0.8037578288100209</v>
+      <c r="BS157" t="s">
+        <v>73</v>
       </c>
       <c r="BT157" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU157" t="n">
-        <v>-0.02230739899246115</v>
-      </c>
-      <c r="BV157" t="n">
-        <v>0.0218744171938352</v>
-      </c>
-      <c r="BW157" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX157" t="n">
         <v>6510</v>
       </c>
     </row>
-    <row r="158" spans="1:76">
+    <row r="158" spans="1:73">
       <c r="A158" t="n">
         <v>5237</v>
       </c>
@@ -36923,26 +35501,17 @@
       <c r="BR158" t="n">
         <v>3825</v>
       </c>
-      <c r="BS158" t="n">
-        <v>0.7921568627450981</v>
+      <c r="BS158" t="s">
+        <v>73</v>
       </c>
       <c r="BT158" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU158" t="n">
-        <v>-0.01796809532620469</v>
-      </c>
-      <c r="BV158" t="n">
-        <v>0.01761933847495356</v>
-      </c>
-      <c r="BW158" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX158" t="n">
         <v>10010</v>
       </c>
     </row>
-    <row r="159" spans="1:76">
+    <row r="159" spans="1:73">
       <c r="A159" t="n">
         <v>5237</v>
       </c>
@@ -37153,26 +35722,17 @@
       <c r="BR159" t="n">
         <v>3840</v>
       </c>
-      <c r="BS159" t="n">
-        <v>0.7903645833333333</v>
+      <c r="BS159" t="s">
+        <v>73</v>
       </c>
       <c r="BT159" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU159" t="n">
-        <v>-0.01444380036918069</v>
-      </c>
-      <c r="BV159" t="n">
-        <v>0.01416344932220526</v>
-      </c>
-      <c r="BW159" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX159" t="n">
         <v>9995</v>
       </c>
     </row>
-    <row r="160" spans="1:76">
+    <row r="160" spans="1:73">
       <c r="A160" t="n">
         <v>5237</v>
       </c>
@@ -37383,26 +35943,17 @@
       <c r="BR160" t="n">
         <v>3845</v>
       </c>
-      <c r="BS160" t="n">
-        <v>0.7893368010403121</v>
+      <c r="BS160" t="s">
+        <v>73</v>
       </c>
       <c r="BT160" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU160" t="n">
-        <v>-0.0164777729012493</v>
-      </c>
-      <c r="BV160" t="n">
-        <v>0.01615794288652905</v>
-      </c>
-      <c r="BW160" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX160" t="n">
         <v>9975</v>
       </c>
     </row>
-    <row r="161" spans="1:76">
+    <row r="161" spans="1:73">
       <c r="A161" t="n">
         <v>5237</v>
       </c>
@@ -37613,26 +36164,17 @@
       <c r="BR161" t="n">
         <v>3845</v>
       </c>
-      <c r="BS161" t="n">
-        <v>0.7789336801040312</v>
+      <c r="BS161" t="s">
+        <v>73</v>
       </c>
       <c r="BT161" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU161" t="n">
-        <v>-0.01905013543603462</v>
-      </c>
-      <c r="BV161" t="n">
-        <v>0.01868037641984688</v>
-      </c>
-      <c r="BW161" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX161" t="n">
         <v>9930</v>
       </c>
     </row>
-    <row r="162" spans="1:76">
+    <row r="162" spans="1:73">
       <c r="A162" t="n">
         <v>5237</v>
       </c>
@@ -37843,26 +36385,17 @@
       <c r="BR162" t="n">
         <v>3860</v>
       </c>
-      <c r="BS162" t="n">
-        <v>0.7797927461139896</v>
+      <c r="BS162" t="s">
+        <v>73</v>
       </c>
       <c r="BT162" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU162" t="n">
-        <v>-0.01909645701968365</v>
-      </c>
-      <c r="BV162" t="n">
-        <v>0.01872579891155735</v>
-      </c>
-      <c r="BW162" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX162" t="n">
         <v>9880</v>
       </c>
     </row>
-    <row r="163" spans="1:76">
+    <row r="163" spans="1:73">
       <c r="A163" t="n">
         <v>5237</v>
       </c>
@@ -38073,26 +36606,17 @@
       <c r="BR163" t="n">
         <v>3860</v>
       </c>
-      <c r="BS163" t="n">
-        <v>0.77720207253886</v>
+      <c r="BS163" t="s">
+        <v>73</v>
       </c>
       <c r="BT163" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU163" t="n">
-        <v>-0.02327992718035321</v>
-      </c>
-      <c r="BV163" t="n">
-        <v>0.02282806881955424</v>
-      </c>
-      <c r="BW163" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX163" t="n">
         <v>9810</v>
       </c>
     </row>
-    <row r="164" spans="1:76">
+    <row r="164" spans="1:73">
       <c r="A164" t="n">
         <v>5237</v>
       </c>
@@ -38303,26 +36827,17 @@
       <c r="BR164" t="n">
         <v>3880</v>
       </c>
-      <c r="BS164" t="n">
-        <v>0.7731958762886597</v>
+      <c r="BS164" t="s">
+        <v>73</v>
       </c>
       <c r="BT164" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU164" t="n">
-        <v>-0.02132586591394015</v>
-      </c>
-      <c r="BV164" t="n">
-        <v>0.02091193546047099</v>
-      </c>
-      <c r="BW164" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX164" t="n">
         <v>9720</v>
       </c>
     </row>
-    <row r="165" spans="1:76">
+    <row r="165" spans="1:73">
       <c r="A165" t="n">
         <v>5237</v>
       </c>
@@ -38533,26 +37048,17 @@
       <c r="BR165" t="n">
         <v>3865</v>
       </c>
-      <c r="BS165" t="n">
-        <v>0.778783958602846</v>
+      <c r="BS165" t="s">
+        <v>73</v>
       </c>
       <c r="BT165" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU165" t="n">
-        <v>-0.02400315643748474</v>
-      </c>
-      <c r="BV165" t="n">
-        <v>0.02353726035293846</v>
-      </c>
-      <c r="BW165" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX165" t="n">
         <v>9665</v>
       </c>
     </row>
-    <row r="166" spans="1:76">
+    <row r="166" spans="1:73">
       <c r="A166" t="n">
         <v>5237</v>
       </c>
@@ -38763,26 +37269,17 @@
       <c r="BR166" t="n">
         <v>3870</v>
       </c>
-      <c r="BS166" t="n">
-        <v>0.7829457364341085</v>
+      <c r="BS166" t="s">
+        <v>73</v>
       </c>
       <c r="BT166" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU166" t="n">
-        <v>-0.02357267892008341</v>
-      </c>
-      <c r="BV166" t="n">
-        <v>0.0231151383112167</v>
-      </c>
-      <c r="BW166" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX166" t="n">
         <v>9600</v>
       </c>
     </row>
-    <row r="167" spans="1:76">
+    <row r="167" spans="1:73">
       <c r="A167" t="n">
         <v>5237</v>
       </c>
@@ -38993,26 +37490,17 @@
       <c r="BR167" t="n">
         <v>3900</v>
       </c>
-      <c r="BS167" t="n">
-        <v>0.7743589743589743</v>
+      <c r="BS167" t="s">
+        <v>73</v>
       </c>
       <c r="BT167" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU167" t="n">
-        <v>-0.02046076655829654</v>
-      </c>
-      <c r="BV167" t="n">
-        <v>0.02006362749655899</v>
-      </c>
-      <c r="BW167" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX167" t="n">
         <v>9560</v>
       </c>
     </row>
-    <row r="168" spans="1:76">
+    <row r="168" spans="1:73">
       <c r="A168" t="n">
         <v>5237</v>
       </c>
@@ -39223,26 +37711,17 @@
       <c r="BR168" t="n">
         <v>3935</v>
       </c>
-      <c r="BS168" t="n">
-        <v>0.758576874205845</v>
+      <c r="BS168" t="s">
+        <v>73</v>
       </c>
       <c r="BT168" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU168" t="n">
-        <v>-0.0206291583125684</v>
-      </c>
-      <c r="BV168" t="n">
-        <v>0.02022875080323361</v>
-      </c>
-      <c r="BW168" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX168" t="n">
         <v>9410</v>
       </c>
     </row>
-    <row r="169" spans="1:76">
+    <row r="169" spans="1:73">
       <c r="A169" t="n">
         <v>5237</v>
       </c>
@@ -39453,26 +37932,17 @@
       <c r="BR169" t="n">
         <v>3950</v>
       </c>
-      <c r="BS169" t="n">
-        <v>0.7531645569620253</v>
+      <c r="BS169" t="s">
+        <v>73</v>
       </c>
       <c r="BT169" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU169" t="n">
-        <v>-0.02229828830817504</v>
-      </c>
-      <c r="BV169" t="n">
-        <v>0.0218654833459645</v>
-      </c>
-      <c r="BW169" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX169" t="n">
         <v>9365</v>
       </c>
     </row>
-    <row r="170" spans="1:76">
+    <row r="170" spans="1:73">
       <c r="A170" t="n">
         <v>5241</v>
       </c>
@@ -39683,26 +38153,17 @@
       <c r="BR170" t="n">
         <v>2740</v>
       </c>
-      <c r="BS170" t="n">
-        <v>0.7171532846715328</v>
+      <c r="BS170" t="s">
+        <v>73</v>
       </c>
       <c r="BT170" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU170" t="n">
-        <v>0.01684483011393267</v>
-      </c>
-      <c r="BV170" t="n">
-        <v>-0.01651787559795626</v>
-      </c>
-      <c r="BW170" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX170" t="n">
         <v>6420</v>
       </c>
     </row>
-    <row r="171" spans="1:76">
+    <row r="171" spans="1:73">
       <c r="A171" t="n">
         <v>5241</v>
       </c>
@@ -39913,26 +38374,17 @@
       <c r="BR171" t="n">
         <v>2710</v>
       </c>
-      <c r="BS171" t="n">
-        <v>0.7214022140221403</v>
+      <c r="BS171" t="s">
+        <v>73</v>
       </c>
       <c r="BT171" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU171" t="n">
-        <v>0.01329145978970792</v>
-      </c>
-      <c r="BV171" t="n">
-        <v>-0.01303347542460753</v>
-      </c>
-      <c r="BW171" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX171" t="n">
         <v>6315</v>
       </c>
     </row>
-    <row r="172" spans="1:76">
+    <row r="172" spans="1:73">
       <c r="A172" t="n">
         <v>5241</v>
       </c>
@@ -40143,26 +38595,17 @@
       <c r="BR172" t="n">
         <v>2705</v>
       </c>
-      <c r="BS172" t="n">
-        <v>0.722735674676525</v>
+      <c r="BS172" t="s">
+        <v>73</v>
       </c>
       <c r="BT172" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU172" t="n">
-        <v>0.01418640354327749</v>
-      </c>
-      <c r="BV172" t="n">
-        <v>-0.01391104851312464</v>
-      </c>
-      <c r="BW172" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX172" t="n">
         <v>6290</v>
       </c>
     </row>
-    <row r="173" spans="1:76">
+    <row r="173" spans="1:73">
       <c r="A173" t="n">
         <v>5241</v>
       </c>
@@ -40373,26 +38816,17 @@
       <c r="BR173" t="n">
         <v>2735</v>
       </c>
-      <c r="BS173" t="n">
-        <v>0.7184643510054844</v>
+      <c r="BS173" t="s">
+        <v>73</v>
       </c>
       <c r="BT173" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU173" t="n">
-        <v>0.01343927461231609</v>
-      </c>
-      <c r="BV173" t="n">
-        <v>-0.01317842119342005</v>
-      </c>
-      <c r="BW173" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX173" t="n">
         <v>6275</v>
       </c>
     </row>
-    <row r="174" spans="1:76">
+    <row r="174" spans="1:73">
       <c r="A174" t="n">
         <v>5241</v>
       </c>
@@ -40603,26 +39037,17 @@
       <c r="BR174" t="n">
         <v>2745</v>
       </c>
-      <c r="BS174" t="n">
-        <v>0.715846994535519</v>
+      <c r="BS174" t="s">
+        <v>73</v>
       </c>
       <c r="BT174" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU174" t="n">
-        <v>0.01022047942344939</v>
-      </c>
-      <c r="BV174" t="n">
-        <v>-0.01002210212428167</v>
-      </c>
-      <c r="BW174" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX174" t="n">
         <v>6275</v>
       </c>
     </row>
-    <row r="175" spans="1:76">
+    <row r="175" spans="1:73">
       <c r="A175" t="n">
         <v>5241</v>
       </c>
@@ -40833,26 +39258,17 @@
       <c r="BR175" t="n">
         <v>2735</v>
       </c>
-      <c r="BS175" t="n">
-        <v>0.7184643510054844</v>
+      <c r="BS175" t="s">
+        <v>73</v>
       </c>
       <c r="BT175" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU175" t="n">
-        <v>0.01193424947997179</v>
-      </c>
-      <c r="BV175" t="n">
-        <v>-0.01170260827398306</v>
-      </c>
-      <c r="BW175" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX175" t="n">
         <v>6245</v>
       </c>
     </row>
-    <row r="176" spans="1:76">
+    <row r="176" spans="1:73">
       <c r="A176" t="n">
         <v>5241</v>
       </c>
@@ -41063,26 +39479,17 @@
       <c r="BR176" t="n">
         <v>2745</v>
       </c>
-      <c r="BS176" t="n">
-        <v>0.7194899817850637</v>
+      <c r="BS176" t="s">
+        <v>73</v>
       </c>
       <c r="BT176" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU176" t="n">
-        <v>0.004530109357416934</v>
-      </c>
-      <c r="BV176" t="n">
-        <v>-0.004442180912769045</v>
-      </c>
-      <c r="BW176" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX176" t="n">
         <v>6300</v>
       </c>
     </row>
-    <row r="177" spans="1:76">
+    <row r="177" spans="1:73">
       <c r="A177" t="n">
         <v>5241</v>
       </c>
@@ -41293,26 +39700,17 @@
       <c r="BR177" t="n">
         <v>2785</v>
       </c>
-      <c r="BS177" t="n">
-        <v>0.7145421903052064</v>
+      <c r="BS177" t="s">
+        <v>73</v>
       </c>
       <c r="BT177" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU177" t="n">
-        <v>0.01074555804112998</v>
-      </c>
-      <c r="BV177" t="n">
-        <v>-0.01053698907934941</v>
-      </c>
-      <c r="BW177" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX177" t="n">
         <v>6360</v>
       </c>
     </row>
-    <row r="178" spans="1:76">
+    <row r="178" spans="1:73">
       <c r="A178" t="n">
         <v>5241</v>
       </c>
@@ -41523,26 +39921,17 @@
       <c r="BR178" t="n">
         <v>2770</v>
       </c>
-      <c r="BS178" t="n">
-        <v>0.7093862815884477</v>
+      <c r="BS178" t="s">
+        <v>73</v>
       </c>
       <c r="BT178" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU178" t="n">
-        <v>0.01648986672718056</v>
-      </c>
-      <c r="BV178" t="n">
-        <v>-0.01616980197390983</v>
-      </c>
-      <c r="BW178" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX178" t="n">
         <v>6315</v>
       </c>
     </row>
-    <row r="179" spans="1:76">
+    <row r="179" spans="1:73">
       <c r="A179" t="n">
         <v>5241</v>
       </c>
@@ -41753,26 +40142,17 @@
       <c r="BR179" t="n">
         <v>2810</v>
       </c>
-      <c r="BS179" t="n">
-        <v>0.708185053380783</v>
+      <c r="BS179" t="s">
+        <v>73</v>
       </c>
       <c r="BT179" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU179" t="n">
-        <v>0.01388394333542486</v>
-      </c>
-      <c r="BV179" t="n">
-        <v>-0.01361445899261016</v>
-      </c>
-      <c r="BW179" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX179" t="n">
         <v>6370</v>
       </c>
     </row>
-    <row r="180" spans="1:76">
+    <row r="180" spans="1:73">
       <c r="A180" t="n">
         <v>5241</v>
       </c>
@@ -41983,26 +40363,17 @@
       <c r="BR180" t="n">
         <v>2825</v>
       </c>
-      <c r="BS180" t="n">
-        <v>0.7008849557522124</v>
+      <c r="BS180" t="s">
+        <v>73</v>
       </c>
       <c r="BT180" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU180" t="n">
-        <v>0.01152266286592096</v>
-      </c>
-      <c r="BV180" t="n">
-        <v>-0.0112990104672559</v>
-      </c>
-      <c r="BW180" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX180" t="n">
         <v>6365</v>
       </c>
     </row>
-    <row r="181" spans="1:76">
+    <row r="181" spans="1:73">
       <c r="A181" t="n">
         <v>5241</v>
       </c>
@@ -42213,26 +40584,17 @@
       <c r="BR181" t="n">
         <v>2860</v>
       </c>
-      <c r="BS181" t="n">
-        <v>0.6975524475524475</v>
+      <c r="BS181" t="s">
+        <v>73</v>
       </c>
       <c r="BT181" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU181" t="n">
-        <v>0.01377247020803873</v>
-      </c>
-      <c r="BV181" t="n">
-        <v>-0.01350514953456128</v>
-      </c>
-      <c r="BW181" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX181" t="n">
         <v>6400</v>
       </c>
     </row>
-    <row r="182" spans="1:76">
+    <row r="182" spans="1:73">
       <c r="A182" t="n">
         <v>5242</v>
       </c>
@@ -42443,26 +40805,17 @@
       <c r="BR182" t="n">
         <v>1765</v>
       </c>
-      <c r="BS182" t="n">
-        <v>0.7875354107648724</v>
+      <c r="BS182" t="s">
+        <v>73</v>
       </c>
       <c r="BT182" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU182" t="n">
-        <v>0.002598922761396838</v>
-      </c>
-      <c r="BV182" t="n">
-        <v>-0.00254847823166493</v>
-      </c>
-      <c r="BW182" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX182" t="n">
         <v>4445</v>
       </c>
     </row>
-    <row r="183" spans="1:76">
+    <row r="183" spans="1:73">
       <c r="A183" t="n">
         <v>5242</v>
       </c>
@@ -42673,26 +41026,17 @@
       <c r="BR183" t="n">
         <v>1755</v>
       </c>
-      <c r="BS183" t="n">
-        <v>0.7834757834757835</v>
+      <c r="BS183" t="s">
+        <v>73</v>
       </c>
       <c r="BT183" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU183" t="n">
-        <v>0.007376048099194343</v>
-      </c>
-      <c r="BV183" t="n">
-        <v>-0.00723288059796201</v>
-      </c>
-      <c r="BW183" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX183" t="n">
         <v>4385</v>
       </c>
     </row>
-    <row r="184" spans="1:76">
+    <row r="184" spans="1:73">
       <c r="A184" t="n">
         <v>5242</v>
       </c>
@@ -42903,26 +41247,17 @@
       <c r="BR184" t="n">
         <v>1755</v>
       </c>
-      <c r="BS184" t="n">
-        <v>0.7834757834757834</v>
+      <c r="BS184" t="s">
+        <v>73</v>
       </c>
       <c r="BT184" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU184" t="n">
-        <v>0.01080704802278731</v>
-      </c>
-      <c r="BV184" t="n">
-        <v>-0.01059728555373751</v>
-      </c>
-      <c r="BW184" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX184" t="n">
         <v>4390</v>
       </c>
     </row>
-    <row r="185" spans="1:76">
+    <row r="185" spans="1:73">
       <c r="A185" t="n">
         <v>5242</v>
       </c>
@@ -43133,26 +41468,17 @@
       <c r="BR185" t="n">
         <v>1890</v>
       </c>
-      <c r="BS185" t="n">
-        <v>0.7380952380952379</v>
+      <c r="BS185" t="s">
+        <v>73</v>
       </c>
       <c r="BT185" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU185" t="n">
-        <v>0.02593084064183782</v>
-      </c>
-      <c r="BV185" t="n">
-        <v>-0.02542752862304165</v>
-      </c>
-      <c r="BW185" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX185" t="n">
         <v>4510</v>
       </c>
     </row>
-    <row r="186" spans="1:76">
+    <row r="186" spans="1:73">
       <c r="A186" t="n">
         <v>5242</v>
       </c>
@@ -43363,26 +41689,17 @@
       <c r="BR186" t="n">
         <v>1845</v>
       </c>
-      <c r="BS186" t="n">
-        <v>0.7642276422764228</v>
+      <c r="BS186" t="s">
+        <v>73</v>
       </c>
       <c r="BT186" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU186" t="n">
-        <v>0.02758826896599775</v>
-      </c>
-      <c r="BV186" t="n">
-        <v>-0.02705278662124289</v>
-      </c>
-      <c r="BW186" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX186" t="n">
         <v>4580</v>
       </c>
     </row>
-    <row r="187" spans="1:76">
+    <row r="187" spans="1:73">
       <c r="A187" t="n">
         <v>5242</v>
       </c>
@@ -43593,26 +41910,17 @@
       <c r="BR187" t="n">
         <v>1835</v>
       </c>
-      <c r="BS187" t="n">
-        <v>0.7602179836512262</v>
+      <c r="BS187" t="s">
+        <v>73</v>
       </c>
       <c r="BT187" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU187" t="n">
-        <v>0.02907367616088596</v>
-      </c>
-      <c r="BV187" t="n">
-        <v>-0.02850936238315449</v>
-      </c>
-      <c r="BW187" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX187" t="n">
         <v>4535</v>
       </c>
     </row>
-    <row r="188" spans="1:76">
+    <row r="188" spans="1:73">
       <c r="A188" t="n">
         <v>5242</v>
       </c>
@@ -43823,26 +42131,17 @@
       <c r="BR188" t="n">
         <v>1880</v>
       </c>
-      <c r="BS188" t="n">
-        <v>0.7606382978723404</v>
+      <c r="BS188" t="s">
+        <v>73</v>
       </c>
       <c r="BT188" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU188" t="n">
-        <v>0.02678730188324219</v>
-      </c>
-      <c r="BV188" t="n">
-        <v>-0.02626736613664726</v>
-      </c>
-      <c r="BW188" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX188" t="n">
         <v>4680</v>
       </c>
     </row>
-    <row r="189" spans="1:76">
+    <row r="189" spans="1:73">
       <c r="A189" t="n">
         <v>5242</v>
       </c>
@@ -44053,26 +42352,17 @@
       <c r="BR189" t="n">
         <v>1950</v>
       </c>
-      <c r="BS189" t="n">
-        <v>0.7589743589743589</v>
+      <c r="BS189" t="s">
+        <v>73</v>
       </c>
       <c r="BT189" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU189" t="n">
-        <v>0.02355715410609893</v>
-      </c>
-      <c r="BV189" t="n">
-        <v>-0.02309991483051999</v>
-      </c>
-      <c r="BW189" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX189" t="n">
         <v>4830</v>
       </c>
     </row>
-    <row r="190" spans="1:76">
+    <row r="190" spans="1:73">
       <c r="A190" t="n">
         <v>5242</v>
       </c>
@@ -44283,26 +42573,17 @@
       <c r="BR190" t="n">
         <v>1955</v>
       </c>
-      <c r="BS190" t="n">
-        <v>0.7570332480818414</v>
+      <c r="BS190" t="s">
+        <v>73</v>
       </c>
       <c r="BT190" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU190" t="n">
-        <v>0.03274541588930946</v>
-      </c>
-      <c r="BV190" t="n">
-        <v>-0.03210983443612014</v>
-      </c>
-      <c r="BW190" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX190" t="n">
         <v>4855</v>
       </c>
     </row>
-    <row r="191" spans="1:76">
+    <row r="191" spans="1:73">
       <c r="A191" t="n">
         <v>5242</v>
       </c>
@@ -44513,26 +42794,17 @@
       <c r="BR191" t="n">
         <v>1960</v>
       </c>
-      <c r="BS191" t="n">
-        <v>0.75</v>
+      <c r="BS191" t="s">
+        <v>73</v>
       </c>
       <c r="BT191" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU191" t="n">
-        <v>0.03183429009249317</v>
-      </c>
-      <c r="BV191" t="n">
-        <v>-0.03121639339432236</v>
-      </c>
-      <c r="BW191" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX191" t="n">
         <v>4840</v>
       </c>
     </row>
-    <row r="192" spans="1:76">
+    <row r="192" spans="1:73">
       <c r="A192" t="n">
         <v>5242</v>
       </c>
@@ -44743,26 +43015,17 @@
       <c r="BR192" t="n">
         <v>1945</v>
       </c>
-      <c r="BS192" t="n">
-        <v>0.750642673521851</v>
+      <c r="BS192" t="s">
+        <v>73</v>
       </c>
       <c r="BT192" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU192" t="n">
-        <v>0.03066529850412514</v>
-      </c>
-      <c r="BV192" t="n">
-        <v>-0.03007009168031782</v>
-      </c>
-      <c r="BW192" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX192" t="n">
         <v>4855</v>
       </c>
     </row>
-    <row r="193" spans="1:76">
+    <row r="193" spans="1:73">
       <c r="A193" t="n">
         <v>5242</v>
       </c>
@@ -44973,26 +43236,17 @@
       <c r="BR193" t="n">
         <v>1965</v>
       </c>
-      <c r="BS193" t="n">
-        <v>0.7506361323155216</v>
+      <c r="BS193" t="s">
+        <v>73</v>
       </c>
       <c r="BT193" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU193" t="n">
-        <v>0.02421416679777055</v>
-      </c>
-      <c r="BV193" t="n">
-        <v>-0.02374417504768522</v>
-      </c>
-      <c r="BW193" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX193" t="n">
         <v>4885</v>
       </c>
     </row>
-    <row r="194" spans="1:76">
+    <row r="194" spans="1:73">
       <c r="A194" t="n">
         <v>5243</v>
       </c>
@@ -45203,26 +43457,17 @@
       <c r="BR194" t="n">
         <v>1110</v>
       </c>
-      <c r="BS194" t="n">
-        <v>0.6981981981981982</v>
+      <c r="BS194" t="s">
+        <v>73</v>
       </c>
       <c r="BT194" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU194" t="n">
-        <v>0.0343320747707091</v>
-      </c>
-      <c r="BV194" t="n">
-        <v>-0.03366569661116658</v>
-      </c>
-      <c r="BW194" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX194" t="n">
         <v>2740</v>
       </c>
     </row>
-    <row r="195" spans="1:76">
+    <row r="195" spans="1:73">
       <c r="A195" t="n">
         <v>5243</v>
       </c>
@@ -45433,26 +43678,17 @@
       <c r="BR195" t="n">
         <v>1100</v>
       </c>
-      <c r="BS195" t="n">
-        <v>0.7045454545454546</v>
+      <c r="BS195" t="s">
+        <v>73</v>
       </c>
       <c r="BT195" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU195" t="n">
-        <v>0.03094443190323992</v>
-      </c>
-      <c r="BV195" t="n">
-        <v>-0.03034380716041629</v>
-      </c>
-      <c r="BW195" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX195" t="n">
         <v>2720</v>
       </c>
     </row>
-    <row r="196" spans="1:76">
+    <row r="196" spans="1:73">
       <c r="A196" t="n">
         <v>5243</v>
       </c>
@@ -45663,26 +43899,17 @@
       <c r="BR196" t="n">
         <v>1110</v>
       </c>
-      <c r="BS196" t="n">
-        <v>0.7072072072072072</v>
+      <c r="BS196" t="s">
+        <v>73</v>
       </c>
       <c r="BT196" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU196" t="n">
-        <v>0.03465728848598604</v>
-      </c>
-      <c r="BV196" t="n">
-        <v>-0.03398459799843878</v>
-      </c>
-      <c r="BW196" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX196" t="n">
         <v>2720</v>
       </c>
     </row>
-    <row r="197" spans="1:76">
+    <row r="197" spans="1:73">
       <c r="A197" t="n">
         <v>5243</v>
       </c>
@@ -45893,26 +44120,17 @@
       <c r="BR197" t="n">
         <v>1100</v>
       </c>
-      <c r="BS197" t="n">
-        <v>0.7181818181818183</v>
+      <c r="BS197" t="s">
+        <v>73</v>
       </c>
       <c r="BT197" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU197" t="n">
-        <v>0.009375852823317321</v>
-      </c>
-      <c r="BV197" t="n">
-        <v>-0.009193869544116495</v>
-      </c>
-      <c r="BW197" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX197" t="n">
         <v>2620</v>
       </c>
     </row>
-    <row r="198" spans="1:76">
+    <row r="198" spans="1:73">
       <c r="A198" t="n">
         <v>5243</v>
       </c>
@@ -46123,26 +44341,17 @@
       <c r="BR198" t="n">
         <v>1140</v>
       </c>
-      <c r="BS198" t="n">
-        <v>0.6885964912280701</v>
+      <c r="BS198" t="s">
+        <v>73</v>
       </c>
       <c r="BT198" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU198" t="n">
-        <v>0.007415529330294102</v>
-      </c>
-      <c r="BV198" t="n">
-        <v>-0.007271595506889605</v>
-      </c>
-      <c r="BW198" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX198" t="n">
         <v>2625</v>
       </c>
     </row>
-    <row r="199" spans="1:76">
+    <row r="199" spans="1:73">
       <c r="A199" t="n">
         <v>5243</v>
       </c>
@@ -46353,26 +44562,17 @@
       <c r="BR199" t="n">
         <v>1165</v>
       </c>
-      <c r="BS199" t="n">
-        <v>0.6738197424892705</v>
+      <c r="BS199" t="s">
+        <v>73</v>
       </c>
       <c r="BT199" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU199" t="n">
-        <v>0.01134367277329296</v>
-      </c>
-      <c r="BV199" t="n">
-        <v>-0.01112349453368466</v>
-      </c>
-      <c r="BW199" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX199" t="n">
         <v>2615</v>
       </c>
     </row>
-    <row r="200" spans="1:76">
+    <row r="200" spans="1:73">
       <c r="A200" t="n">
         <v>5243</v>
       </c>
@@ -46583,26 +44783,17 @@
       <c r="BR200" t="n">
         <v>1150</v>
       </c>
-      <c r="BS200" t="n">
-        <v>0.6739130434782608</v>
+      <c r="BS200" t="s">
+        <v>73</v>
       </c>
       <c r="BT200" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU200" t="n">
-        <v>0.0136803711391088</v>
-      </c>
-      <c r="BV200" t="n">
-        <v>-0.01341483808867627</v>
-      </c>
-      <c r="BW200" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX200" t="n">
         <v>2570</v>
       </c>
     </row>
-    <row r="201" spans="1:76">
+    <row r="201" spans="1:73">
       <c r="A201" t="n">
         <v>5243</v>
       </c>
@@ -46813,26 +45004,17 @@
       <c r="BR201" t="n">
         <v>1115</v>
       </c>
-      <c r="BS201" t="n">
-        <v>0.6726457399103138</v>
+      <c r="BS201" t="s">
+        <v>73</v>
       </c>
       <c r="BT201" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU201" t="n">
-        <v>0.00831758447211528</v>
-      </c>
-      <c r="BV201" t="n">
-        <v>-0.008156141953147511</v>
-      </c>
-      <c r="BW201" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX201" t="n">
         <v>2495</v>
       </c>
     </row>
-    <row r="202" spans="1:76">
+    <row r="202" spans="1:73">
       <c r="A202" t="n">
         <v>5243</v>
       </c>
@@ -47043,26 +45225,17 @@
       <c r="BR202" t="n">
         <v>1110</v>
       </c>
-      <c r="BS202" t="n">
-        <v>0.6801801801801802</v>
+      <c r="BS202" t="s">
+        <v>73</v>
       </c>
       <c r="BT202" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU202" t="n">
-        <v>0.0023195053459385</v>
-      </c>
-      <c r="BV202" t="n">
-        <v>-0.002274484247918762</v>
-      </c>
-      <c r="BW202" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX202" t="n">
         <v>2480</v>
       </c>
     </row>
-    <row r="203" spans="1:76">
+    <row r="203" spans="1:73">
       <c r="A203" t="n">
         <v>5243</v>
       </c>
@@ -47273,26 +45446,17 @@
       <c r="BR203" t="n">
         <v>1110</v>
       </c>
-      <c r="BS203" t="n">
-        <v>0.6936936936936935</v>
+      <c r="BS203" t="s">
+        <v>73</v>
       </c>
       <c r="BT203" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU203" t="n">
-        <v>-0.005873496520884647</v>
-      </c>
-      <c r="BV203" t="n">
-        <v>0.005759493221410339</v>
-      </c>
-      <c r="BW203" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX203" t="n">
         <v>2510</v>
       </c>
     </row>
-    <row r="204" spans="1:76">
+    <row r="204" spans="1:73">
       <c r="A204" t="n">
         <v>5243</v>
       </c>
@@ -47503,26 +45667,17 @@
       <c r="BR204" t="n">
         <v>1140</v>
       </c>
-      <c r="BS204" t="n">
-        <v>0.6929824561403508</v>
+      <c r="BS204" t="s">
+        <v>73</v>
       </c>
       <c r="BT204" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU204" t="n">
-        <v>-0.005982661086398888</v>
-      </c>
-      <c r="BV204" t="n">
-        <v>0.005866538926274423</v>
-      </c>
-      <c r="BW204" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX204" t="n">
         <v>2580</v>
       </c>
     </row>
-    <row r="205" spans="1:76">
+    <row r="205" spans="1:73">
       <c r="A205" t="n">
         <v>5243</v>
       </c>
@@ -47733,26 +45888,17 @@
       <c r="BR205" t="n">
         <v>1160</v>
       </c>
-      <c r="BS205" t="n">
-        <v>0.6810344827586207</v>
+      <c r="BS205" t="s">
+        <v>73</v>
       </c>
       <c r="BT205" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU205" t="n">
-        <v>-0.01757681552983503</v>
-      </c>
-      <c r="BV205" t="n">
-        <v>0.01723565333496002</v>
-      </c>
-      <c r="BW205" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX205" t="n">
         <v>2630</v>
       </c>
     </row>
-    <row r="206" spans="1:76">
+    <row r="206" spans="1:73">
       <c r="A206" t="n">
         <v>5244</v>
       </c>
@@ -47963,26 +46109,17 @@
       <c r="BR206" t="n">
         <v>1200</v>
       </c>
-      <c r="BS206" t="n">
-        <v>0.7625</v>
+      <c r="BS206" t="s">
+        <v>73</v>
       </c>
       <c r="BT206" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU206" t="n">
-        <v>-0.04628967484956181</v>
-      </c>
-      <c r="BV206" t="n">
-        <v>0.04539120225394733</v>
-      </c>
-      <c r="BW206" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX206" t="n">
         <v>3330</v>
       </c>
     </row>
-    <row r="207" spans="1:76">
+    <row r="207" spans="1:73">
       <c r="A207" t="n">
         <v>5244</v>
       </c>
@@ -48193,26 +46330,17 @@
       <c r="BR207" t="n">
         <v>1215</v>
       </c>
-      <c r="BS207" t="n">
-        <v>0.7489711934156379</v>
+      <c r="BS207" t="s">
+        <v>73</v>
       </c>
       <c r="BT207" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU207" t="n">
-        <v>-0.04335743296352446</v>
-      </c>
-      <c r="BV207" t="n">
-        <v>0.04251587454989292</v>
-      </c>
-      <c r="BW207" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX207" t="n">
         <v>3320</v>
       </c>
     </row>
-    <row r="208" spans="1:76">
+    <row r="208" spans="1:73">
       <c r="A208" t="n">
         <v>5244</v>
       </c>
@@ -48423,26 +46551,17 @@
       <c r="BR208" t="n">
         <v>1210</v>
       </c>
-      <c r="BS208" t="n">
-        <v>0.7438016528925619</v>
+      <c r="BS208" t="s">
+        <v>73</v>
       </c>
       <c r="BT208" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU208" t="n">
-        <v>-0.04844267716753947</v>
-      </c>
-      <c r="BV208" t="n">
-        <v>0.0475024152617326</v>
-      </c>
-      <c r="BW208" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX208" t="n">
         <v>3275</v>
       </c>
     </row>
-    <row r="209" spans="1:76">
+    <row r="209" spans="1:73">
       <c r="A209" t="n">
         <v>5244</v>
       </c>
@@ -48653,26 +46772,17 @@
       <c r="BR209" t="n">
         <v>1200</v>
       </c>
-      <c r="BS209" t="n">
-        <v>0.7375</v>
+      <c r="BS209" t="s">
+        <v>73</v>
       </c>
       <c r="BT209" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU209" t="n">
-        <v>-0.04879903174375455</v>
-      </c>
-      <c r="BV209" t="n">
-        <v>0.04785185307255457</v>
-      </c>
-      <c r="BW209" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX209" t="n">
         <v>3245</v>
       </c>
     </row>
-    <row r="210" spans="1:76">
+    <row r="210" spans="1:73">
       <c r="A210" t="n">
         <v>5244</v>
       </c>
@@ -48883,26 +46993,17 @@
       <c r="BR210" t="n">
         <v>1205</v>
       </c>
-      <c r="BS210" t="n">
-        <v>0.7344398340248963</v>
+      <c r="BS210" t="s">
+        <v>73</v>
       </c>
       <c r="BT210" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU210" t="n">
-        <v>-0.05502335834164018</v>
-      </c>
-      <c r="BV210" t="n">
-        <v>0.05395536683491009</v>
-      </c>
-      <c r="BW210" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX210" t="n">
         <v>3245</v>
       </c>
     </row>
-    <row r="211" spans="1:76">
+    <row r="211" spans="1:73">
       <c r="A211" t="n">
         <v>5244</v>
       </c>
@@ -49113,26 +47214,17 @@
       <c r="BR211" t="n">
         <v>1195</v>
       </c>
-      <c r="BS211" t="n">
-        <v>0.7322175732217573</v>
+      <c r="BS211" t="s">
+        <v>73</v>
       </c>
       <c r="BT211" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU211" t="n">
-        <v>-0.0492845486390654</v>
-      </c>
-      <c r="BV211" t="n">
-        <v>0.04832794618974312</v>
-      </c>
-      <c r="BW211" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX211" t="n">
         <v>3205</v>
       </c>
     </row>
-    <row r="212" spans="1:76">
+    <row r="212" spans="1:73">
       <c r="A212" t="n">
         <v>5244</v>
       </c>
@@ -49343,26 +47435,17 @@
       <c r="BR212" t="n">
         <v>1200</v>
       </c>
-      <c r="BS212" t="n">
-        <v>0.7291666666666667</v>
+      <c r="BS212" t="s">
+        <v>73</v>
       </c>
       <c r="BT212" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU212" t="n">
-        <v>-0.04800631090345764</v>
-      </c>
-      <c r="BV212" t="n">
-        <v>0.04707451877263202</v>
-      </c>
-      <c r="BW212" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX212" t="n">
         <v>3180</v>
       </c>
     </row>
-    <row r="213" spans="1:76">
+    <row r="213" spans="1:73">
       <c r="A213" t="n">
         <v>5244</v>
       </c>
@@ -49573,26 +47656,17 @@
       <c r="BR213" t="n">
         <v>1205</v>
       </c>
-      <c r="BS213" t="n">
-        <v>0.7302904564315351</v>
+      <c r="BS213" t="s">
+        <v>73</v>
       </c>
       <c r="BT213" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU213" t="n">
-        <v>-0.04494073465705251</v>
-      </c>
-      <c r="BV213" t="n">
-        <v>0.04406844469935944</v>
-      </c>
-      <c r="BW213" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX213" t="n">
         <v>3170</v>
       </c>
     </row>
-    <row r="214" spans="1:76">
+    <row r="214" spans="1:73">
       <c r="A214" t="n">
         <v>5244</v>
       </c>
@@ -49803,26 +47877,17 @@
       <c r="BR214" t="n">
         <v>1200</v>
       </c>
-      <c r="BS214" t="n">
-        <v>0.7291666666666667</v>
+      <c r="BS214" t="s">
+        <v>73</v>
       </c>
       <c r="BT214" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU214" t="n">
-        <v>-0.04030593316882625</v>
-      </c>
-      <c r="BV214" t="n">
-        <v>0.0395236037074389</v>
-      </c>
-      <c r="BW214" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX214" t="n">
         <v>3155</v>
       </c>
     </row>
-    <row r="215" spans="1:76">
+    <row r="215" spans="1:73">
       <c r="A215" t="n">
         <v>5244</v>
       </c>
@@ -50033,26 +48098,17 @@
       <c r="BR215" t="n">
         <v>1200</v>
       </c>
-      <c r="BS215" t="n">
-        <v>0.7291666666666667</v>
+      <c r="BS215" t="s">
+        <v>73</v>
       </c>
       <c r="BT215" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU215" t="n">
-        <v>-0.03710499183599913</v>
-      </c>
-      <c r="BV215" t="n">
-        <v>0.03638479195484889</v>
-      </c>
-      <c r="BW215" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX215" t="n">
         <v>3155</v>
       </c>
     </row>
-    <row r="216" spans="1:76">
+    <row r="216" spans="1:73">
       <c r="A216" t="n">
         <v>5244</v>
       </c>
@@ -50263,26 +48319,17 @@
       <c r="BR216" t="n">
         <v>1215</v>
       </c>
-      <c r="BS216" t="n">
-        <v>0.7037037037037037</v>
+      <c r="BS216" t="s">
+        <v>73</v>
       </c>
       <c r="BT216" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU216" t="n">
-        <v>-0.03090284790951325</v>
-      </c>
-      <c r="BV216" t="n">
-        <v>0.03030303030303039</v>
-      </c>
-      <c r="BW216" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX216" t="n">
         <v>3125</v>
       </c>
     </row>
-    <row r="217" spans="1:76">
+    <row r="217" spans="1:73">
       <c r="A217" t="n">
         <v>5244</v>
       </c>
@@ -50493,26 +48540,17 @@
       <c r="BR217" t="n">
         <v>1205</v>
       </c>
-      <c r="BS217" t="n">
-        <v>0.7012448132780085</v>
+      <c r="BS217" t="s">
+        <v>73</v>
       </c>
       <c r="BT217" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU217" t="n">
-        <v>-0.03460898864335404</v>
-      </c>
-      <c r="BV217" t="n">
-        <v>0.03393723564532525</v>
-      </c>
-      <c r="BW217" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX217" t="n">
         <v>3065</v>
       </c>
     </row>
-    <row r="218" spans="1:76">
+    <row r="218" spans="1:73">
       <c r="A218" t="n">
         <v>5245</v>
       </c>
@@ -50723,26 +48761,17 @@
       <c r="BR218" t="n">
         <v>445</v>
       </c>
-      <c r="BS218" t="n">
-        <v>0.7640449438202248</v>
+      <c r="BS218" t="s">
+        <v>73</v>
       </c>
       <c r="BT218" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU218" t="n">
-        <v>-0.009896990506968351</v>
-      </c>
-      <c r="BV218" t="n">
-        <v>0.009704892057833314</v>
-      </c>
-      <c r="BW218" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX218" t="n">
         <v>1040</v>
       </c>
     </row>
-    <row r="219" spans="1:76">
+    <row r="219" spans="1:73">
       <c r="A219" t="n">
         <v>5245</v>
       </c>
@@ -50953,26 +48982,17 @@
       <c r="BR219" t="n">
         <v>665</v>
       </c>
-      <c r="BS219" t="n">
-        <v>0.7819548872180451</v>
+      <c r="BS219" t="s">
+        <v>73</v>
       </c>
       <c r="BT219" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU219" t="n">
-        <v>-0.02184843418160698</v>
-      </c>
-      <c r="BV219" t="n">
-        <v>0.02142436079087662</v>
-      </c>
-      <c r="BW219" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX219" t="n">
         <v>1690</v>
       </c>
     </row>
-    <row r="220" spans="1:76">
+    <row r="220" spans="1:73">
       <c r="A220" t="n">
         <v>5245</v>
       </c>
@@ -51183,26 +49203,17 @@
       <c r="BR220" t="n">
         <v>800</v>
       </c>
-      <c r="BS220" t="n">
-        <v>0.79375</v>
+      <c r="BS220" t="s">
+        <v>73</v>
       </c>
       <c r="BT220" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU220" t="n">
-        <v>-0.02709718255939864</v>
-      </c>
-      <c r="BV220" t="n">
-        <v>0.02657123209577761</v>
-      </c>
-      <c r="BW220" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX220" t="n">
         <v>2055</v>
       </c>
     </row>
-    <row r="221" spans="1:76">
+    <row r="221" spans="1:73">
       <c r="A221" t="n">
         <v>5245</v>
       </c>
@@ -51413,26 +49424,17 @@
       <c r="BR221" t="n">
         <v>945</v>
       </c>
-      <c r="BS221" t="n">
-        <v>0.7936507936507936</v>
+      <c r="BS221" t="s">
+        <v>73</v>
       </c>
       <c r="BT221" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU221" t="n">
-        <v>-0.01611812186532746</v>
-      </c>
-      <c r="BV221" t="n">
-        <v>0.01580527259957143</v>
-      </c>
-      <c r="BW221" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX221" t="n">
         <v>2435</v>
       </c>
     </row>
-    <row r="222" spans="1:76">
+    <row r="222" spans="1:73">
       <c r="A222" t="n">
         <v>5245</v>
       </c>
@@ -51643,26 +49645,17 @@
       <c r="BR222" t="n">
         <v>975</v>
       </c>
-      <c r="BS222" t="n">
-        <v>0.8102564102564103</v>
+      <c r="BS222" t="s">
+        <v>73</v>
       </c>
       <c r="BT222" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU222" t="n">
-        <v>-0.02502653343591166</v>
-      </c>
-      <c r="BV222" t="n">
-        <v>0.02454077382475728</v>
-      </c>
-      <c r="BW222" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX222" t="n">
         <v>2670</v>
       </c>
     </row>
-    <row r="223" spans="1:76">
+    <row r="223" spans="1:73">
       <c r="A223" t="n">
         <v>5245</v>
       </c>
@@ -51873,26 +49866,17 @@
       <c r="BR223" t="n">
         <v>1015</v>
       </c>
-      <c r="BS223" t="n">
-        <v>0.8078817733990147</v>
+      <c r="BS223" t="s">
+        <v>73</v>
       </c>
       <c r="BT223" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU223" t="n">
-        <v>-0.02767686710040085</v>
-      </c>
-      <c r="BV223" t="n">
-        <v>0.027139665084984</v>
-      </c>
-      <c r="BW223" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX223" t="n">
         <v>2840</v>
       </c>
     </row>
-    <row r="224" spans="1:76">
+    <row r="224" spans="1:73">
       <c r="A224" t="n">
         <v>5245</v>
       </c>
@@ -52103,26 +50087,17 @@
       <c r="BR224" t="n">
         <v>1055</v>
       </c>
-      <c r="BS224" t="n">
-        <v>0.8104265402843601</v>
+      <c r="BS224" t="s">
+        <v>73</v>
       </c>
       <c r="BT224" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU224" t="n">
-        <v>-0.01325213001031367</v>
-      </c>
-      <c r="BV224" t="n">
-        <v>0.01299490902774081</v>
-      </c>
-      <c r="BW224" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX224" t="n">
         <v>3010</v>
       </c>
     </row>
-    <row r="225" spans="1:76">
+    <row r="225" spans="1:73">
       <c r="A225" t="n">
         <v>5245</v>
       </c>
@@ -52333,26 +50308,17 @@
       <c r="BR225" t="n">
         <v>1120</v>
       </c>
-      <c r="BS225" t="n">
-        <v>0.8035714285714286</v>
+      <c r="BS225" t="s">
+        <v>73</v>
       </c>
       <c r="BT225" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU225" t="n">
-        <v>-0.02717361087333936</v>
-      </c>
-      <c r="BV225" t="n">
-        <v>0.02664617695264493</v>
-      </c>
-      <c r="BW225" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX225" t="n">
         <v>3215</v>
       </c>
     </row>
-    <row r="226" spans="1:76">
+    <row r="226" spans="1:73">
       <c r="A226" t="n">
         <v>5245</v>
       </c>
@@ -52563,26 +50529,17 @@
       <c r="BR226" t="n">
         <v>1170</v>
       </c>
-      <c r="BS226" t="n">
-        <v>0.782051282051282</v>
+      <c r="BS226" t="s">
+        <v>73</v>
       </c>
       <c r="BT226" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU226" t="n">
-        <v>-0.03260831713006351</v>
-      </c>
-      <c r="BV226" t="n">
-        <v>0.0319753967341937</v>
-      </c>
-      <c r="BW226" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX226" t="n">
         <v>3335</v>
       </c>
     </row>
-    <row r="227" spans="1:76">
+    <row r="227" spans="1:73">
       <c r="A227" t="n">
         <v>5245</v>
       </c>
@@ -52793,26 +50750,17 @@
       <c r="BR227" t="n">
         <v>1275</v>
       </c>
-      <c r="BS227" t="n">
-        <v>0.776470588235294</v>
+      <c r="BS227" t="s">
+        <v>73</v>
       </c>
       <c r="BT227" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU227" t="n">
-        <v>-0.02800548826778293</v>
-      </c>
-      <c r="BV227" t="n">
-        <v>0.02746190778645141</v>
-      </c>
-      <c r="BW227" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX227" t="n">
         <v>3625</v>
       </c>
     </row>
-    <row r="228" spans="1:76">
+    <row r="228" spans="1:73">
       <c r="A228" t="n">
         <v>5245</v>
       </c>
@@ -53023,26 +50971,17 @@
       <c r="BR228" t="n">
         <v>1520</v>
       </c>
-      <c r="BS228" t="n">
-        <v>0.7828947368421053</v>
+      <c r="BS228" t="s">
+        <v>73</v>
       </c>
       <c r="BT228" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU228" t="n">
-        <v>-0.01926958438638349</v>
-      </c>
-      <c r="BV228" t="n">
-        <v>0.0188955659134451</v>
-      </c>
-      <c r="BW228" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX228" t="n">
         <v>4310</v>
       </c>
     </row>
-    <row r="229" spans="1:76">
+    <row r="229" spans="1:73">
       <c r="A229" t="n">
         <v>5245</v>
       </c>
@@ -53253,26 +51192,17 @@
       <c r="BR229" t="n">
         <v>1570</v>
       </c>
-      <c r="BS229" t="n">
-        <v>0.802547770700637</v>
+      <c r="BS229" t="s">
+        <v>73</v>
       </c>
       <c r="BT229" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU229" t="n">
-        <v>-0.02230913228973552</v>
-      </c>
-      <c r="BV229" t="n">
-        <v>0.02187611684818402</v>
-      </c>
-      <c r="BW229" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX229" t="n">
         <v>4475</v>
       </c>
     </row>
-    <row r="230" spans="1:76">
+    <row r="230" spans="1:73">
       <c r="A230" t="n">
         <v>5246</v>
       </c>
@@ -53483,26 +51413,17 @@
       <c r="BR230" t="n">
         <v>2695</v>
       </c>
-      <c r="BS230" t="n">
-        <v>0.6289424860853432</v>
+      <c r="BS230" t="s">
+        <v>73</v>
       </c>
       <c r="BT230" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU230" t="n">
-        <v>-0.004700264998356074</v>
-      </c>
-      <c r="BV230" t="n">
-        <v>0.004609033869451662</v>
-      </c>
-      <c r="BW230" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX230" t="n">
         <v>5830</v>
       </c>
     </row>
-    <row r="231" spans="1:76">
+    <row r="231" spans="1:73">
       <c r="A231" t="n">
         <v>5246</v>
       </c>
@@ -53713,26 +51634,17 @@
       <c r="BR231" t="n">
         <v>2760</v>
       </c>
-      <c r="BS231" t="n">
-        <v>0.6304347826086956</v>
+      <c r="BS231" t="s">
+        <v>73</v>
       </c>
       <c r="BT231" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU231" t="n">
-        <v>0.007850153259262971</v>
-      </c>
-      <c r="BV231" t="n">
-        <v>-0.007697783479225784</v>
-      </c>
-      <c r="BW231" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX231" t="n">
         <v>5975</v>
       </c>
     </row>
-    <row r="232" spans="1:76">
+    <row r="232" spans="1:73">
       <c r="A232" t="n">
         <v>5246</v>
       </c>
@@ -53943,26 +51855,17 @@
       <c r="BR232" t="n">
         <v>2815</v>
       </c>
-      <c r="BS232" t="n">
-        <v>0.6305506216696271</v>
+      <c r="BS232" t="s">
+        <v>73</v>
       </c>
       <c r="BT232" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU232" t="n">
-        <v>0.01000245758183904</v>
-      </c>
-      <c r="BV232" t="n">
-        <v>-0.009808312039549349</v>
-      </c>
-      <c r="BW232" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX232" t="n">
         <v>6090</v>
       </c>
     </row>
-    <row r="233" spans="1:76">
+    <row r="233" spans="1:73">
       <c r="A233" t="n">
         <v>5246</v>
       </c>
@@ -54173,26 +52076,17 @@
       <c r="BR233" t="n">
         <v>2835</v>
       </c>
-      <c r="BS233" t="n">
-        <v>0.63668430335097</v>
+      <c r="BS233" t="s">
+        <v>73</v>
       </c>
       <c r="BT233" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU233" t="n">
-        <v>0.008078522269045596</v>
-      </c>
-      <c r="BV233" t="n">
-        <v>-0.007921719895829904</v>
-      </c>
-      <c r="BW233" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX233" t="n">
         <v>6180</v>
       </c>
     </row>
-    <row r="234" spans="1:76">
+    <row r="234" spans="1:73">
       <c r="A234" t="n">
         <v>5246</v>
       </c>
@@ -54403,26 +52297,17 @@
       <c r="BR234" t="n">
         <v>2815</v>
       </c>
-      <c r="BS234" t="n">
-        <v>0.6234458259325044</v>
+      <c r="BS234" t="s">
+        <v>73</v>
       </c>
       <c r="BT234" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU234" t="n">
-        <v>0.00912645812666002</v>
-      </c>
-      <c r="BV234" t="n">
-        <v>-0.008949315544680925</v>
-      </c>
-      <c r="BW234" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX234" t="n">
         <v>6105</v>
       </c>
     </row>
-    <row r="235" spans="1:76">
+    <row r="235" spans="1:73">
       <c r="A235" t="n">
         <v>5246</v>
       </c>
@@ -54633,26 +52518,17 @@
       <c r="BR235" t="n">
         <v>2815</v>
       </c>
-      <c r="BS235" t="n">
-        <v>0.6287744227353464</v>
+      <c r="BS235" t="s">
+        <v>73</v>
       </c>
       <c r="BT235" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU235" t="n">
-        <v>0.01312997670328842</v>
-      </c>
-      <c r="BV235" t="n">
-        <v>-0.01287512669003377</v>
-      </c>
-      <c r="BW235" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX235" t="n">
         <v>6140</v>
       </c>
     </row>
-    <row r="236" spans="1:76">
+    <row r="236" spans="1:73">
       <c r="A236" t="n">
         <v>5246</v>
       </c>
@@ -54863,26 +52739,17 @@
       <c r="BR236" t="n">
         <v>2810</v>
       </c>
-      <c r="BS236" t="n">
-        <v>0.6245551601423487</v>
+      <c r="BS236" t="s">
+        <v>73</v>
       </c>
       <c r="BT236" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU236" t="n">
-        <v>0.01331903226330677</v>
-      </c>
-      <c r="BV236" t="n">
-        <v>-0.01306051272244635</v>
-      </c>
-      <c r="BW236" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX236" t="n">
         <v>6090</v>
       </c>
     </row>
-    <row r="237" spans="1:76">
+    <row r="237" spans="1:73">
       <c r="A237" t="n">
         <v>5246</v>
       </c>
@@ -55093,26 +52960,17 @@
       <c r="BR237" t="n">
         <v>2865</v>
       </c>
-      <c r="BS237" t="n">
-        <v>0.6125654450261779</v>
+      <c r="BS237" t="s">
+        <v>73</v>
       </c>
       <c r="BT237" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU237" t="n">
-        <v>0.01565958639565701</v>
-      </c>
-      <c r="BV237" t="n">
-        <v>-0.01535563720437683</v>
-      </c>
-      <c r="BW237" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX237" t="n">
         <v>6125</v>
       </c>
     </row>
-    <row r="238" spans="1:76">
+    <row r="238" spans="1:73">
       <c r="A238" t="n">
         <v>5246</v>
       </c>
@@ -55323,26 +53181,17 @@
       <c r="BR238" t="n">
         <v>2885</v>
       </c>
-      <c r="BS238" t="n">
-        <v>0.6013864818024263</v>
+      <c r="BS238" t="s">
+        <v>73</v>
       </c>
       <c r="BT238" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU238" t="n">
-        <v>0.009904911267678229</v>
-      </c>
-      <c r="BV238" t="n">
-        <v>-0.009712659078287667</v>
-      </c>
-      <c r="BW238" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX238" t="n">
         <v>6120</v>
       </c>
     </row>
-    <row r="239" spans="1:76">
+    <row r="239" spans="1:73">
       <c r="A239" t="n">
         <v>5246</v>
       </c>
@@ -55553,26 +53402,17 @@
       <c r="BR239" t="n">
         <v>2810</v>
       </c>
-      <c r="BS239" t="n">
-        <v>0.6067615658362988</v>
+      <c r="BS239" t="s">
+        <v>73</v>
       </c>
       <c r="BT239" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU239" t="n">
-        <v>0.02192397602641871</v>
-      </c>
-      <c r="BV239" t="n">
-        <v>-0.02149843638478877</v>
-      </c>
-      <c r="BW239" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX239" t="n">
         <v>6030</v>
       </c>
     </row>
-    <row r="240" spans="1:76">
+    <row r="240" spans="1:73">
       <c r="A240" t="n">
         <v>5246</v>
       </c>
@@ -55783,26 +53623,17 @@
       <c r="BR240" t="n">
         <v>2805</v>
       </c>
-      <c r="BS240" t="n">
-        <v>0.606060606060606</v>
+      <c r="BS240" t="s">
+        <v>73</v>
       </c>
       <c r="BT240" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU240" t="n">
-        <v>0.01698878627857503</v>
-      </c>
-      <c r="BV240" t="n">
-        <v>-0.01665903760452059</v>
-      </c>
-      <c r="BW240" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX240" t="n">
         <v>6010</v>
       </c>
     </row>
-    <row r="241" spans="1:76">
+    <row r="241" spans="1:73">
       <c r="A241" t="n">
         <v>5246</v>
       </c>
@@ -56013,26 +53844,17 @@
       <c r="BR241" t="n">
         <v>2820</v>
       </c>
-      <c r="BS241" t="n">
-        <v>0.6010638297872339</v>
+      <c r="BS241" t="s">
+        <v>73</v>
       </c>
       <c r="BT241" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU241" t="n">
-        <v>0.01803813161099477</v>
-      </c>
-      <c r="BV241" t="n">
-        <v>-0.01768801537057541</v>
-      </c>
-      <c r="BW241" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX241" t="n">
         <v>5965</v>
       </c>
     </row>
-    <row r="242" spans="1:76">
+    <row r="242" spans="1:73">
       <c r="A242" t="n">
         <v>5247</v>
       </c>
@@ -56243,26 +54065,17 @@
       <c r="BR242" t="n">
         <v>2610</v>
       </c>
-      <c r="BS242" t="n">
-        <v>0.8314176245210728</v>
+      <c r="BS242" t="s">
+        <v>73</v>
       </c>
       <c r="BT242" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU242" t="n">
-        <v>-0.005071544135945238</v>
-      </c>
-      <c r="BV242" t="n">
-        <v>0.004973106559133522</v>
-      </c>
-      <c r="BW242" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX242" t="n">
         <v>7325</v>
       </c>
     </row>
-    <row r="243" spans="1:76">
+    <row r="243" spans="1:73">
       <c r="A243" t="n">
         <v>5247</v>
       </c>
@@ -56473,26 +54286,17 @@
       <c r="BR243" t="n">
         <v>2700</v>
       </c>
-      <c r="BS243" t="n">
-        <v>0.8129629629629629</v>
+      <c r="BS243" t="s">
+        <v>73</v>
       </c>
       <c r="BT243" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU243" t="n">
-        <v>-0.01124712017342144</v>
-      </c>
-      <c r="BV243" t="n">
-        <v>0.01102881599893257</v>
-      </c>
-      <c r="BW243" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX243" t="n">
         <v>7480</v>
       </c>
     </row>
-    <row r="244" spans="1:76">
+    <row r="244" spans="1:73">
       <c r="A244" t="n">
         <v>5247</v>
       </c>
@@ -56703,26 +54507,17 @@
       <c r="BR244" t="n">
         <v>2790</v>
       </c>
-      <c r="BS244" t="n">
-        <v>0.8082437275985663</v>
+      <c r="BS244" t="s">
+        <v>73</v>
       </c>
       <c r="BT244" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU244" t="n">
-        <v>-0.01120345491900832</v>
-      </c>
-      <c r="BV244" t="n">
-        <v>0.01098599827768076</v>
-      </c>
-      <c r="BW244" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX244" t="n">
         <v>7730</v>
       </c>
     </row>
-    <row r="245" spans="1:76">
+    <row r="245" spans="1:73">
       <c r="A245" t="n">
         <v>5247</v>
       </c>
@@ -56933,26 +54728,17 @@
       <c r="BR245" t="n">
         <v>2850</v>
       </c>
-      <c r="BS245" t="n">
-        <v>0.8070175438596492</v>
+      <c r="BS245" t="s">
+        <v>73</v>
       </c>
       <c r="BT245" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU245" t="n">
-        <v>-0.00862186804420717</v>
-      </c>
-      <c r="BV245" t="n">
-        <v>0.008454519446795095</v>
-      </c>
-      <c r="BW245" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX245" t="n">
         <v>7920</v>
       </c>
     </row>
-    <row r="246" spans="1:76">
+    <row r="246" spans="1:73">
       <c r="A246" t="n">
         <v>5247</v>
       </c>
@@ -57163,26 +54949,17 @@
       <c r="BR246" t="n">
         <v>2875</v>
       </c>
-      <c r="BS246" t="n">
-        <v>0.8</v>
+      <c r="BS246" t="s">
+        <v>73</v>
       </c>
       <c r="BT246" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU246" t="n">
-        <v>-0.005448105086232724</v>
-      </c>
-      <c r="BV246" t="n">
-        <v>0.005342358542669512</v>
-      </c>
-      <c r="BW246" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX246" t="n">
         <v>7945</v>
       </c>
     </row>
-    <row r="247" spans="1:76">
+    <row r="247" spans="1:73">
       <c r="A247" t="n">
         <v>5247</v>
       </c>
@@ -57393,26 +55170,17 @@
       <c r="BR247" t="n">
         <v>2865</v>
       </c>
-      <c r="BS247" t="n">
-        <v>0.806282722513089</v>
+      <c r="BS247" t="s">
+        <v>73</v>
       </c>
       <c r="BT247" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU247" t="n">
-        <v>-0.001676163408289133</v>
-      </c>
-      <c r="BV247" t="n">
-        <v>0.001643629438391803</v>
-      </c>
-      <c r="BW247" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX247" t="n">
         <v>7985</v>
       </c>
     </row>
-    <row r="248" spans="1:76">
+    <row r="248" spans="1:73">
       <c r="A248" t="n">
         <v>5247</v>
       </c>
@@ -57623,26 +55391,17 @@
       <c r="BR248" t="n">
         <v>2965</v>
       </c>
-      <c r="BS248" t="n">
-        <v>0.8010118043844857</v>
+      <c r="BS248" t="s">
+        <v>73</v>
       </c>
       <c r="BT248" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU248" t="n">
-        <v>0.003683531370264781</v>
-      </c>
-      <c r="BV248" t="n">
-        <v>-0.003612034821584675</v>
-      </c>
-      <c r="BW248" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX248" t="n">
         <v>8180</v>
       </c>
     </row>
-    <row r="249" spans="1:76">
+    <row r="249" spans="1:73">
       <c r="A249" t="n">
         <v>5247</v>
       </c>
@@ -57853,26 +55612,17 @@
       <c r="BR249" t="n">
         <v>2970</v>
       </c>
-      <c r="BS249" t="n">
-        <v>0.803030303030303</v>
+      <c r="BS249" t="s">
+        <v>73</v>
       </c>
       <c r="BT249" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU249" t="n">
-        <v>4.049525447780145e-05</v>
-      </c>
-      <c r="BV249" t="n">
-        <v>-3.970925033081052e-05</v>
-      </c>
-      <c r="BW249" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX249" t="n">
         <v>8130</v>
       </c>
     </row>
-    <row r="250" spans="1:76">
+    <row r="250" spans="1:73">
       <c r="A250" t="n">
         <v>5247</v>
       </c>
@@ -58083,26 +55833,17 @@
       <c r="BR250" t="n">
         <v>2975</v>
       </c>
-      <c r="BS250" t="n">
-        <v>0.8033613445378152</v>
+      <c r="BS250" t="s">
+        <v>73</v>
       </c>
       <c r="BT250" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU250" t="n">
-        <v>0.005678225262725878</v>
-      </c>
-      <c r="BV250" t="n">
-        <v>-0.005568012136216272</v>
-      </c>
-      <c r="BW250" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX250" t="n">
         <v>8105</v>
       </c>
     </row>
-    <row r="251" spans="1:76">
+    <row r="251" spans="1:73">
       <c r="A251" t="n">
         <v>5247</v>
       </c>
@@ -58313,26 +56054,17 @@
       <c r="BR251" t="n">
         <v>3030</v>
       </c>
-      <c r="BS251" t="n">
-        <v>0.7937293729372937</v>
+      <c r="BS251" t="s">
+        <v>73</v>
       </c>
       <c r="BT251" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU251" t="n">
-        <v>0.005009238135200933</v>
-      </c>
-      <c r="BV251" t="n">
-        <v>-0.004912009904412651</v>
-      </c>
-      <c r="BW251" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX251" t="n">
         <v>8130</v>
       </c>
     </row>
-    <row r="252" spans="1:76">
+    <row r="252" spans="1:73">
       <c r="A252" t="n">
         <v>5247</v>
       </c>
@@ -58543,26 +56275,17 @@
       <c r="BR252" t="n">
         <v>3035</v>
       </c>
-      <c r="BS252" t="n">
-        <v>0.7907742998352553</v>
+      <c r="BS252" t="s">
+        <v>73</v>
       </c>
       <c r="BT252" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU252" t="n">
-        <v>0.006311232797464483</v>
-      </c>
-      <c r="BV252" t="n">
-        <v>-0.006188733131361923</v>
-      </c>
-      <c r="BW252" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX252" t="n">
         <v>8100</v>
       </c>
     </row>
-    <row r="253" spans="1:76">
+    <row r="253" spans="1:73">
       <c r="A253" t="n">
         <v>5247</v>
       </c>
@@ -58773,26 +56496,17 @@
       <c r="BR253" t="n">
         <v>3045</v>
       </c>
-      <c r="BS253" t="n">
-        <v>0.7783251231527094</v>
+      <c r="BS253" t="s">
+        <v>73</v>
       </c>
       <c r="BT253" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU253" t="n">
-        <v>0.004539075858264963</v>
-      </c>
-      <c r="BV253" t="n">
-        <v>-0.004450973375771383</v>
-      </c>
-      <c r="BW253" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX253" t="n">
         <v>8045</v>
       </c>
     </row>
-    <row r="254" spans="1:76">
+    <row r="254" spans="1:73">
       <c r="A254" t="n">
         <v>5381</v>
       </c>
@@ -59003,26 +56717,17 @@
       <c r="BR254" t="n">
         <v>190</v>
       </c>
-      <c r="BS254" t="n">
-        <v>0.8157894736842105</v>
+      <c r="BS254" t="s">
+        <v>73</v>
       </c>
       <c r="BT254" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU254" t="n">
-        <v>-0.04950079405626129</v>
-      </c>
-      <c r="BV254" t="n">
-        <v>0.04853999433007505</v>
-      </c>
-      <c r="BW254" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX254" t="n">
         <v>510</v>
       </c>
     </row>
-    <row r="255" spans="1:76">
+    <row r="255" spans="1:73">
       <c r="A255" t="n">
         <v>5381</v>
       </c>
@@ -59233,26 +56938,17 @@
       <c r="BR255" t="n">
         <v>185</v>
       </c>
-      <c r="BS255" t="n">
-        <v>0.8378378378378379</v>
+      <c r="BS255" t="s">
+        <v>73</v>
       </c>
       <c r="BT255" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU255" t="n">
-        <v>-0.03989393081905646</v>
-      </c>
-      <c r="BV255" t="n">
-        <v>0.03911959823433342</v>
-      </c>
-      <c r="BW255" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX255" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="256" spans="1:76">
+    <row r="256" spans="1:73">
       <c r="A256" t="n">
         <v>5381</v>
       </c>
@@ -59463,26 +57159,17 @@
       <c r="BR256" t="n">
         <v>180</v>
       </c>
-      <c r="BS256" t="n">
-        <v>0.8611111111111112</v>
+      <c r="BS256" t="s">
+        <v>73</v>
       </c>
       <c r="BT256" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU256" t="n">
-        <v>-0.03989393081905646</v>
-      </c>
-      <c r="BV256" t="n">
-        <v>0.03911959823433342</v>
-      </c>
-      <c r="BW256" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX256" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="257" spans="1:76">
+    <row r="257" spans="1:73">
       <c r="A257" t="n">
         <v>5381</v>
       </c>
@@ -59693,26 +57380,17 @@
       <c r="BR257" t="n">
         <v>190</v>
       </c>
-      <c r="BS257" t="n">
-        <v>0.8157894736842105</v>
+      <c r="BS257" t="s">
+        <v>73</v>
       </c>
       <c r="BT257" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU257" t="n">
-        <v>-0.0305071331703759</v>
-      </c>
-      <c r="BV257" t="n">
-        <v>0.02991499630155092</v>
-      </c>
-      <c r="BW257" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX257" t="n">
         <v>490</v>
       </c>
     </row>
-    <row r="258" spans="1:76">
+    <row r="258" spans="1:73">
       <c r="A258" t="n">
         <v>5381</v>
       </c>
@@ -59923,26 +57601,17 @@
       <c r="BR258" t="n">
         <v>180</v>
       </c>
-      <c r="BS258" t="n">
-        <v>0.8333333333333334</v>
+      <c r="BS258" t="s">
+        <v>73</v>
       </c>
       <c r="BT258" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU258" t="n">
-        <v>-0.04113091804842073</v>
-      </c>
-      <c r="BV258" t="n">
-        <v>0.04033257580862193</v>
-      </c>
-      <c r="BW258" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX258" t="n">
         <v>485</v>
       </c>
     </row>
-    <row r="259" spans="1:76">
+    <row r="259" spans="1:73">
       <c r="A259" t="n">
         <v>5381</v>
       </c>
@@ -60153,26 +57822,17 @@
       <c r="BR259" t="n">
         <v>195</v>
       </c>
-      <c r="BS259" t="n">
-        <v>0.7948717948717949</v>
+      <c r="BS259" t="s">
+        <v>73</v>
       </c>
       <c r="BT259" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU259" t="n">
-        <v>-0.05111727583378345</v>
-      </c>
-      <c r="BV259" t="n">
-        <v>0.05012510054526853</v>
-      </c>
-      <c r="BW259" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX259" t="n">
         <v>490</v>
       </c>
     </row>
-    <row r="260" spans="1:76">
+    <row r="260" spans="1:73">
       <c r="A260" t="n">
         <v>5381</v>
       </c>
@@ -60383,26 +58043,17 @@
       <c r="BR260" t="n">
         <v>195</v>
       </c>
-      <c r="BS260" t="n">
-        <v>0.8205128205128205</v>
+      <c r="BS260" t="s">
+        <v>73</v>
       </c>
       <c r="BT260" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU260" t="n">
-        <v>-0.03931146595862756</v>
-      </c>
-      <c r="BV260" t="n">
-        <v>0.03854843889110027</v>
-      </c>
-      <c r="BW260" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX260" t="n">
         <v>515</v>
       </c>
     </row>
-    <row r="261" spans="1:76">
+    <row r="261" spans="1:73">
       <c r="A261" t="n">
         <v>5381</v>
       </c>
@@ -60613,26 +58264,17 @@
       <c r="BR261" t="n">
         <v>200</v>
       </c>
-      <c r="BS261" t="n">
-        <v>0.85</v>
+      <c r="BS261" t="s">
+        <v>73</v>
       </c>
       <c r="BT261" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU261" t="n">
-        <v>-0.0387511902357387</v>
-      </c>
-      <c r="BV261" t="n">
-        <v>0.03799903799903803</v>
-      </c>
-      <c r="BW261" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX261" t="n">
         <v>525</v>
       </c>
     </row>
-    <row r="262" spans="1:76">
+    <row r="262" spans="1:73">
       <c r="A262" t="n">
         <v>5381</v>
       </c>
@@ -60843,26 +58485,17 @@
       <c r="BR262" t="n">
         <v>205</v>
       </c>
-      <c r="BS262" t="n">
-        <v>0.8048780487804879</v>
+      <c r="BS262" t="s">
+        <v>73</v>
       </c>
       <c r="BT262" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU262" t="n">
-        <v>-0.06706097110170228</v>
-      </c>
-      <c r="BV262" t="n">
-        <v>0.06575933213003138</v>
-      </c>
-      <c r="BW262" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX262" t="n">
         <v>530</v>
       </c>
     </row>
-    <row r="263" spans="1:76">
+    <row r="263" spans="1:73">
       <c r="A263" t="n">
         <v>5381</v>
       </c>
@@ -61073,26 +58706,17 @@
       <c r="BR263" t="n">
         <v>230</v>
       </c>
-      <c r="BS263" t="n">
-        <v>0.7826086956521739</v>
+      <c r="BS263" t="s">
+        <v>73</v>
       </c>
       <c r="BT263" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU263" t="n">
-        <v>-0.07954505881779372</v>
-      </c>
-      <c r="BV263" t="n">
-        <v>0.07800110639867253</v>
-      </c>
-      <c r="BW263" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX263" t="n">
         <v>580</v>
       </c>
     </row>
-    <row r="264" spans="1:76">
+    <row r="264" spans="1:73">
       <c r="A264" t="n">
         <v>5381</v>
       </c>
@@ -61303,26 +58927,17 @@
       <c r="BR264" t="n">
         <v>240</v>
       </c>
-      <c r="BS264" t="n">
-        <v>0.75</v>
+      <c r="BS264" t="s">
+        <v>73</v>
       </c>
       <c r="BT264" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU264" t="n">
-        <v>-0.07722345654076612</v>
-      </c>
-      <c r="BV264" t="n">
-        <v>0.07572456592064436</v>
-      </c>
-      <c r="BW264" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX264" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="265" spans="1:76">
+    <row r="265" spans="1:73">
       <c r="A265" t="n">
         <v>5381</v>
       </c>
@@ -61533,26 +59148,17 @@
       <c r="BR265" t="n">
         <v>260</v>
       </c>
-      <c r="BS265" t="n">
-        <v>0.7692307692307692</v>
+      <c r="BS265" t="s">
+        <v>73</v>
       </c>
       <c r="BT265" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU265" t="n">
-        <v>-0.05650762083805927</v>
-      </c>
-      <c r="BV265" t="n">
-        <v>0.05541082011670251</v>
-      </c>
-      <c r="BW265" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX265" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="266" spans="1:76">
+    <row r="266" spans="1:73">
       <c r="A266" t="n">
         <v>5382</v>
       </c>
@@ -61763,26 +59369,17 @@
       <c r="BR266" t="n">
         <v>570</v>
       </c>
-      <c r="BS266" t="n">
-        <v>0.7017543859649122</v>
+      <c r="BS266" t="s">
+        <v>73</v>
       </c>
       <c r="BT266" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU266" t="n">
-        <v>-0.03470147799310452</v>
-      </c>
-      <c r="BV266" t="n">
-        <v>0.0340279297967635</v>
-      </c>
-      <c r="BW266" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX266" t="n">
         <v>1425</v>
       </c>
     </row>
-    <row r="267" spans="1:76">
+    <row r="267" spans="1:73">
       <c r="A267" t="n">
         <v>5382</v>
       </c>
@@ -61993,26 +59590,17 @@
       <c r="BR267" t="n">
         <v>575</v>
       </c>
-      <c r="BS267" t="n">
-        <v>0.6869565217391305</v>
+      <c r="BS267" t="s">
+        <v>73</v>
       </c>
       <c r="BT267" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU267" t="n">
-        <v>-0.04496285823290491</v>
-      </c>
-      <c r="BV267" t="n">
-        <v>0.04409013886138069</v>
-      </c>
-      <c r="BW267" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX267" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="268" spans="1:76">
+    <row r="268" spans="1:73">
       <c r="A268" t="n">
         <v>5382</v>
       </c>
@@ -62223,26 +59811,17 @@
       <c r="BR268" t="n">
         <v>600</v>
       </c>
-      <c r="BS268" t="n">
-        <v>0.6833333333333333</v>
+      <c r="BS268" t="s">
+        <v>73</v>
       </c>
       <c r="BT268" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU268" t="n">
-        <v>-0.04091771717783077</v>
-      </c>
-      <c r="BV268" t="n">
-        <v>0.04012351312090312</v>
-      </c>
-      <c r="BW268" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX268" t="n">
         <v>1465</v>
       </c>
     </row>
-    <row r="269" spans="1:76">
+    <row r="269" spans="1:73">
       <c r="A269" t="n">
         <v>5382</v>
       </c>
@@ -62453,26 +60032,17 @@
       <c r="BR269" t="n">
         <v>615</v>
       </c>
-      <c r="BS269" t="n">
-        <v>0.6747967479674797</v>
+      <c r="BS269" t="s">
+        <v>73</v>
       </c>
       <c r="BT269" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU269" t="n">
-        <v>-0.04755416642417742</v>
-      </c>
-      <c r="BV269" t="n">
-        <v>0.04663115032008358</v>
-      </c>
-      <c r="BW269" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX269" t="n">
         <v>1475</v>
       </c>
     </row>
-    <row r="270" spans="1:76">
+    <row r="270" spans="1:73">
       <c r="A270" t="n">
         <v>5382</v>
       </c>
@@ -62683,26 +60253,17 @@
       <c r="BR270" t="n">
         <v>620</v>
       </c>
-      <c r="BS270" t="n">
-        <v>0.6774193548387097</v>
+      <c r="BS270" t="s">
+        <v>73</v>
       </c>
       <c r="BT270" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU270" t="n">
-        <v>-0.04755416642417742</v>
-      </c>
-      <c r="BV270" t="n">
-        <v>0.04663115032008358</v>
-      </c>
-      <c r="BW270" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX270" t="n">
         <v>1475</v>
       </c>
     </row>
-    <row r="271" spans="1:76">
+    <row r="271" spans="1:73">
       <c r="A271" t="n">
         <v>5382</v>
       </c>
@@ -62913,26 +60474,17 @@
       <c r="BR271" t="n">
         <v>650</v>
       </c>
-      <c r="BS271" t="n">
-        <v>0.6538461538461537</v>
+      <c r="BS271" t="s">
+        <v>73</v>
       </c>
       <c r="BT271" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU271" t="n">
-        <v>-0.05702551673062684</v>
-      </c>
-      <c r="BV271" t="n">
-        <v>0.05591866376180099</v>
-      </c>
-      <c r="BW271" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX271" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="272" spans="1:76">
+    <row r="272" spans="1:73">
       <c r="A272" t="n">
         <v>5382</v>
       </c>
@@ -63143,26 +60695,17 @@
       <c r="BR272" t="n">
         <v>650</v>
       </c>
-      <c r="BS272" t="n">
-        <v>0.6461538461538463</v>
+      <c r="BS272" t="s">
+        <v>73</v>
       </c>
       <c r="BT272" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU272" t="n">
-        <v>-0.07049080993738643</v>
-      </c>
-      <c r="BV272" t="n">
-        <v>0.06912259853436331</v>
-      </c>
-      <c r="BW272" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX272" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="273" spans="1:76">
+    <row r="273" spans="1:73">
       <c r="A273" t="n">
         <v>5382</v>
       </c>
@@ -63373,26 +60916,17 @@
       <c r="BR273" t="n">
         <v>670</v>
       </c>
-      <c r="BS273" t="n">
-        <v>0.6567164179104477</v>
+      <c r="BS273" t="s">
+        <v>73</v>
       </c>
       <c r="BT273" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU273" t="n">
-        <v>-0.07590332975578984</v>
-      </c>
-      <c r="BV273" t="n">
-        <v>0.07443006251156969</v>
-      </c>
-      <c r="BW273" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX273" t="n">
         <v>1530</v>
       </c>
     </row>
-    <row r="274" spans="1:76">
+    <row r="274" spans="1:73">
       <c r="A274" t="n">
         <v>5382</v>
       </c>
@@ -63603,26 +61137,17 @@
       <c r="BR274" t="n">
         <v>700</v>
       </c>
-      <c r="BS274" t="n">
-        <v>0.6642857142857143</v>
+      <c r="BS274" t="s">
+        <v>73</v>
       </c>
       <c r="BT274" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU274" t="n">
-        <v>-0.05738430980980369</v>
-      </c>
-      <c r="BV274" t="n">
-        <v>0.05627049274476914</v>
-      </c>
-      <c r="BW274" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX274" t="n">
         <v>1595</v>
       </c>
     </row>
-    <row r="275" spans="1:76">
+    <row r="275" spans="1:73">
       <c r="A275" t="n">
         <v>5382</v>
       </c>
@@ -63833,26 +61358,17 @@
       <c r="BR275" t="n">
         <v>705</v>
       </c>
-      <c r="BS275" t="n">
-        <v>0.6382978723404256</v>
+      <c r="BS275" t="s">
+        <v>73</v>
       </c>
       <c r="BT275" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU275" t="n">
-        <v>-0.06545766636010231</v>
-      </c>
-      <c r="BV275" t="n">
-        <v>0.06418714718733753</v>
-      </c>
-      <c r="BW275" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX275" t="n">
         <v>1545</v>
       </c>
     </row>
-    <row r="276" spans="1:76">
+    <row r="276" spans="1:73">
       <c r="A276" t="n">
         <v>5382</v>
       </c>
@@ -64063,26 +61579,17 @@
       <c r="BR276" t="n">
         <v>705</v>
       </c>
-      <c r="BS276" t="n">
-        <v>0.6382978723404256</v>
+      <c r="BS276" t="s">
+        <v>73</v>
       </c>
       <c r="BT276" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU276" t="n">
-        <v>-0.06135670976846996</v>
-      </c>
-      <c r="BV276" t="n">
-        <v>0.06016578927781624</v>
-      </c>
-      <c r="BW276" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX276" t="n">
         <v>1570</v>
       </c>
     </row>
-    <row r="277" spans="1:76">
+    <row r="277" spans="1:73">
       <c r="A277" t="n">
         <v>5382</v>
       </c>
@@ -64293,26 +61800,17 @@
       <c r="BR277" t="n">
         <v>695</v>
       </c>
-      <c r="BS277" t="n">
-        <v>0.6330935251798561</v>
+      <c r="BS277" t="s">
+        <v>73</v>
       </c>
       <c r="BT277" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="BU277" t="n">
-        <v>-0.05671340728543717</v>
-      </c>
-      <c r="BV277" t="n">
-        <v>0.05561261229356285</v>
-      </c>
-      <c r="BW277" t="s">
-        <v>11</v>
-      </c>
-      <c r="BX277" t="n">
         <v>1510</v>
       </c>
     </row>
-    <row r="278" spans="1:76">
+    <row r="278" spans="1:73">
       <c r="A278" t="n">
         <v>5391</v>
       </c>
@@ -64523,26 +62021,17 @@
       <c r="BR278" t="n">
         <v>1280</v>
       </c>
-      <c r="BS278" t="n">
-        <v>0.796875</v>
+      <c r="BS278" t="s">
+        <v>73</v>
       </c>
       <c r="BT278" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU278" t="n">
-        <v>0.01855081204252373</v>
-      </c>
-      <c r="BV278" t="n">
-        <v>-0.018190744785608</v>
-      </c>
-      <c r="BW278" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX278" t="n">
         <v>3550</v>
       </c>
     </row>
-    <row r="279" spans="1:76">
+    <row r="279" spans="1:73">
       <c r="A279" t="n">
         <v>5391</v>
       </c>
@@ -64753,26 +62242,17 @@
       <c r="BR279" t="n">
         <v>1265</v>
       </c>
-      <c r="BS279" t="n">
-        <v>0.7984189723320158</v>
+      <c r="BS279" t="s">
+        <v>73</v>
       </c>
       <c r="BT279" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU279" t="n">
-        <v>0.01452441609135102</v>
-      </c>
-      <c r="BV279" t="n">
-        <v>-0.01424250031061169</v>
-      </c>
-      <c r="BW279" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX279" t="n">
         <v>3515</v>
       </c>
     </row>
-    <row r="280" spans="1:76">
+    <row r="280" spans="1:73">
       <c r="A280" t="n">
         <v>5391</v>
       </c>
@@ -64983,26 +62463,17 @@
       <c r="BR280" t="n">
         <v>1280</v>
       </c>
-      <c r="BS280" t="n">
-        <v>0.78125</v>
+      <c r="BS280" t="s">
+        <v>73</v>
       </c>
       <c r="BT280" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU280" t="n">
-        <v>0.01466416662982484</v>
-      </c>
-      <c r="BV280" t="n">
-        <v>-0.01437953832130368</v>
-      </c>
-      <c r="BW280" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX280" t="n">
         <v>3495</v>
       </c>
     </row>
-    <row r="281" spans="1:76">
+    <row r="281" spans="1:73">
       <c r="A281" t="n">
         <v>5391</v>
       </c>
@@ -65213,26 +62684,17 @@
       <c r="BR281" t="n">
         <v>1275</v>
       </c>
-      <c r="BS281" t="n">
-        <v>0.7882352941176471</v>
+      <c r="BS281" t="s">
+        <v>73</v>
       </c>
       <c r="BT281" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU281" t="n">
-        <v>0.02061788258748676</v>
-      </c>
-      <c r="BV281" t="n">
-        <v>-0.02021769393754158</v>
-      </c>
-      <c r="BW281" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX281" t="n">
         <v>3475</v>
       </c>
     </row>
-    <row r="282" spans="1:76">
+    <row r="282" spans="1:73">
       <c r="A282" t="n">
         <v>5391</v>
       </c>
@@ -65443,26 +62905,17 @@
       <c r="BR282" t="n">
         <v>1275</v>
       </c>
-      <c r="BS282" t="n">
-        <v>0.7882352941176469</v>
+      <c r="BS282" t="s">
+        <v>73</v>
       </c>
       <c r="BT282" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU282" t="n">
-        <v>0.01041702941702238</v>
-      </c>
-      <c r="BV282" t="n">
-        <v>-0.01021483712491156</v>
-      </c>
-      <c r="BW282" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX282" t="n">
         <v>3480</v>
       </c>
     </row>
-    <row r="283" spans="1:76">
+    <row r="283" spans="1:73">
       <c r="A283" t="n">
         <v>5391</v>
       </c>
@@ -65673,26 +63126,17 @@
       <c r="BR283" t="n">
         <v>1280</v>
       </c>
-      <c r="BS283" t="n">
-        <v>0.765625</v>
+      <c r="BS283" t="s">
+        <v>73</v>
       </c>
       <c r="BT283" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU283" t="n">
-        <v>0.01077341573147839</v>
-      </c>
-      <c r="BV283" t="n">
-        <v>-0.0105643060579419</v>
-      </c>
-      <c r="BW283" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX283" t="n">
         <v>3420</v>
       </c>
     </row>
-    <row r="284" spans="1:76">
+    <row r="284" spans="1:73">
       <c r="A284" t="n">
         <v>5391</v>
       </c>
@@ -65903,26 +63347,17 @@
       <c r="BR284" t="n">
         <v>1290</v>
       </c>
-      <c r="BS284" t="n">
-        <v>0.7596899224806201</v>
+      <c r="BS284" t="s">
+        <v>73</v>
       </c>
       <c r="BT284" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU284" t="n">
-        <v>0.001949308501911107</v>
-      </c>
-      <c r="BV284" t="n">
-        <v>-0.001911472844714046</v>
-      </c>
-      <c r="BW284" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX284" t="n">
         <v>3410</v>
       </c>
     </row>
-    <row r="285" spans="1:76">
+    <row r="285" spans="1:73">
       <c r="A285" t="n">
         <v>5391</v>
       </c>
@@ -66133,26 +63568,17 @@
       <c r="BR285" t="n">
         <v>1320</v>
       </c>
-      <c r="BS285" t="n">
-        <v>0.7386363636363638</v>
+      <c r="BS285" t="s">
+        <v>73</v>
       </c>
       <c r="BT285" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU285" t="n">
-        <v>0.0003930807209047149</v>
-      </c>
-      <c r="BV285" t="n">
-        <v>-0.0003854511089720347</v>
-      </c>
-      <c r="BW285" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX285" t="n">
         <v>3435</v>
       </c>
     </row>
-    <row r="286" spans="1:76">
+    <row r="286" spans="1:73">
       <c r="A286" t="n">
         <v>5391</v>
       </c>
@@ -66363,26 +63789,17 @@
       <c r="BR286" t="n">
         <v>1345</v>
       </c>
-      <c r="BS286" t="n">
-        <v>0.7434944237918216</v>
+      <c r="BS286" t="s">
+        <v>73</v>
       </c>
       <c r="BT286" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU286" t="n">
-        <v>-0.001215927551320828</v>
-      </c>
-      <c r="BV286" t="n">
-        <v>0.001192326660049647</v>
-      </c>
-      <c r="BW286" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX286" t="n">
         <v>3490</v>
       </c>
     </row>
-    <row r="287" spans="1:76">
+    <row r="287" spans="1:73">
       <c r="A287" t="n">
         <v>5391</v>
       </c>
@@ -66593,26 +64010,17 @@
       <c r="BR287" t="n">
         <v>1390</v>
       </c>
-      <c r="BS287" t="n">
-        <v>0.7517985611510791</v>
+      <c r="BS287" t="s">
+        <v>73</v>
       </c>
       <c r="BT287" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU287" t="n">
-        <v>0.00551059187247227</v>
-      </c>
-      <c r="BV287" t="n">
-        <v>-0.005403632473877984</v>
-      </c>
-      <c r="BW287" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX287" t="n">
         <v>3605</v>
       </c>
     </row>
-    <row r="288" spans="1:76">
+    <row r="288" spans="1:73">
       <c r="A288" t="n">
         <v>5391</v>
       </c>
@@ -66823,26 +64231,17 @@
       <c r="BR288" t="n">
         <v>1425</v>
       </c>
-      <c r="BS288" t="n">
-        <v>0.7403508771929824</v>
+      <c r="BS288" t="s">
+        <v>73</v>
       </c>
       <c r="BT288" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU288" t="n">
-        <v>0.002570873573364829</v>
-      </c>
-      <c r="BV288" t="n">
-        <v>-0.002520973472317056</v>
-      </c>
-      <c r="BW288" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX288" t="n">
         <v>3645</v>
       </c>
     </row>
-    <row r="289" spans="1:76">
+    <row r="289" spans="1:73">
       <c r="A289" t="n">
         <v>5391</v>
       </c>
@@ -67053,22 +64452,13 @@
       <c r="BR289" t="n">
         <v>1450</v>
       </c>
-      <c r="BS289" t="n">
-        <v>0.7344827586206896</v>
+      <c r="BS289" t="s">
+        <v>73</v>
       </c>
       <c r="BT289" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="BU289" t="n">
-        <v>0.002435537192573944</v>
-      </c>
-      <c r="BV289" t="n">
-        <v>-0.002388263941460522</v>
-      </c>
-      <c r="BW289" t="s">
-        <v>12</v>
-      </c>
-      <c r="BX289" t="n">
         <v>3685</v>
       </c>
     </row>
